--- a/MyFramework_1/TestData/TD/TD.xlsx
+++ b/MyFramework_1/TestData/TD/TD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagarajaK\eclipse-workspace\selBasic\TestData\TD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagarajaK\eclipse-workspace\Git_Buckt1\MyFramework_1\TestData\TD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884E8882-48EB-4D7F-B510-8B9A8CBB146F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0552C2-559C-4FE5-B3F9-89A92D7D3854}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -171,6 +171,69 @@
   </si>
   <si>
     <t>Branch - Office Supplies Requisiton Template3.xlsx</t>
+  </si>
+  <si>
+    <t>11/05/2020 20:10:43</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>ViewSonic VX2757-MHD - LED monitor - Full HD (1080p) - 27</t>
+  </si>
+  <si>
+    <t>T24i-20(A20238FT0)23.8 inch Monitor-HDMI</t>
+  </si>
+  <si>
+    <t>Lenovo Ultraslim Plus Wireless Keyboard &amp; Mouse</t>
+  </si>
+  <si>
+    <t>Apple Magic Keyboard - keyboard - US</t>
+  </si>
+  <si>
+    <t>Logitech Triathlon M720 - mouse - Bluetooth, 2.4 GHz</t>
+  </si>
+  <si>
+    <t>Apple Magic Mouse 2 - mouse - Bluetooth</t>
+  </si>
+  <si>
+    <t>Apple Magic Trackpad 2 - trackpad - Bluetooth 4.0 - silver</t>
+  </si>
+  <si>
+    <t>PWR ADP_BO Type-C 65W Adapter</t>
+  </si>
+  <si>
+    <t>Apple USB-C Charge Cable - USB-C cable - 2 m</t>
+  </si>
+  <si>
+    <t>PWR ADP_BO TP 170W AC Adapter-slim tip</t>
+  </si>
+  <si>
+    <t>96W USB-C Power Adapter MacBook Pro + USB-C Charge Cable (2M) Bundle</t>
+  </si>
+  <si>
+    <t>EVOLVE 40 UC USB-A CORDED MONAURAL HEADSET</t>
+  </si>
+  <si>
+    <t>EVOLVE 40 UC USB-A CORDED BINAURAL HEADSET</t>
+  </si>
+  <si>
+    <t>VOYAGER 5200 UC WIRELESS BLUETOOTH HEADSET UC</t>
+  </si>
+  <si>
+    <t>EVOLVE 65 WIRELESS BT DUAL EAR HEADSET W/STAND</t>
+  </si>
+  <si>
+    <t>EVOLVE 65 WIRELESS BLUETOOTH SINGLE EAR HEADSET</t>
+  </si>
+  <si>
+    <t>StarTech.com USB 3.0 to Gigabit Ethernet Adapter - 10/100/1000 NIC Network Adapt</t>
+  </si>
+  <si>
+    <t>StarTech.com USB C to Gigabit Ethernet Adapter - Black - USB 3.1 to RJ45 LAN Net</t>
+  </si>
+  <si>
+    <t>StarTech.com Portable USB C Multiport Video Adapter - 4k HDMI or VGA, USB 3.0</t>
   </si>
 </sst>
 </file>
@@ -252,10 +315,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213F3DC-B182-452E-AF46-9D4704FF2230}">
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -652,8 +716,229 @@
       <c r="W1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" t="s">
+        <v>65</v>
+      </c>
+      <c r="V5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1054,9 +1339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1DBCE9-6DD9-48B4-AE77-F594AF59EC82}">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/MyFramework_1/TestData/TD/TD.xlsx
+++ b/MyFramework_1/TestData/TD/TD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagarajaK\eclipse-workspace\Git_Buckt1\MyFramework_1\TestData\TD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0552C2-559C-4FE5-B3F9-89A92D7D3854}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7864111D-85BB-4E2F-9C12-F07DF1921F9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
   </bookViews>
@@ -179,9 +179,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>ViewSonic VX2757-MHD - LED monitor - Full HD (1080p) - 27</t>
-  </si>
-  <si>
     <t>T24i-20(A20238FT0)23.8 inch Monitor-HDMI</t>
   </si>
   <si>
@@ -234,6 +231,9 @@
   </si>
   <si>
     <t>StarTech.com Portable USB C Multiport Video Adapter - 4k HDMI or VGA, USB 3.0</t>
+  </si>
+  <si>
+    <t>ViewSonic VX2757-MHD - LED monitor - Full HD (1080p) - 27"</t>
   </si>
 </sst>
 </file>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213F3DC-B182-452E-AF46-9D4704FF2230}">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -754,20 +754,17 @@
       <c r="K2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" t="s">
         <v>47</v>
-      </c>
-      <c r="M2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" t="s">
-        <v>51</v>
       </c>
       <c r="V2" t="s">
         <v>45</v>
@@ -811,19 +808,19 @@
         <v>34</v>
       </c>
       <c r="L3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
         <v>52</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>53</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" t="s">
         <v>54</v>
-      </c>
-      <c r="O3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" t="s">
-        <v>55</v>
       </c>
       <c r="V3" t="s">
         <v>45</v>
@@ -867,19 +864,19 @@
         <v>34</v>
       </c>
       <c r="L4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" t="s">
         <v>57</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>58</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>59</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>60</v>
-      </c>
-      <c r="P4" t="s">
-        <v>61</v>
       </c>
       <c r="V4" t="s">
         <v>45</v>
@@ -923,16 +920,16 @@
         <v>34</v>
       </c>
       <c r="L5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" t="s">
         <v>62</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>63</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>64</v>
-      </c>
-      <c r="O5" t="s">
-        <v>65</v>
       </c>
       <c r="V5" t="s">
         <v>45</v>
@@ -1337,9 +1334,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1DBCE9-6DD9-48B4-AE77-F594AF59EC82}">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1606,6 +1605,11 @@
         <v>44</v>
       </c>
     </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="M8" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MyFramework_1/TestData/TD/TD.xlsx
+++ b/MyFramework_1/TestData/TD/TD.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagarajaK\eclipse-workspace\Git_Buckt1\MyFramework_1\TestData\TD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B70E6DC-7974-406D-BC66-DD90A0314329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6B96FF-A7C5-48B0-915C-9DC4555A0B86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -139,7 +139,7 @@
     <t>Apple USB C Charger cable</t>
   </si>
   <si>
-    <t>11/06/2020 19:13:09</t>
+    <t>11/07/2020 13:27:05</t>
   </si>
   <si>
     <t>Branch - Office Supplies Requisiton Template.xlsx</t>
@@ -161,13 +161,21 @@
   </si>
   <si>
     <t>Branch - Office Supplies Requisiton Template3.xlsx</t>
+  </si>
+  <si>
+    <t>ViewSonic VX2757-MHD - LED monitor - Full HD (1080p) - 27"</t>
+  </si>
+  <si>
+    <t>96W USB-C Power Adapter MacBook Pro + USB-C Charge Cable (2M) Bundle</t>
+  </si>
+  <si>
+    <t>StarTech.com Portable USB C Multiport Video Adapter - 4k HDMI or VGA, USB 3.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -563,12 +571,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213F3DC-B182-452E-AF46-9D4704FF2230}">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
@@ -645,9 +655,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -677,19 +687,14 @@
         <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
+        <v>44</v>
+      </c>
       <c r="V2" t="s">
         <v>34</v>
       </c>
@@ -697,9 +702,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -731,15 +736,6 @@
       <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
       <c r="V3" t="s">
         <v>34</v>
       </c>
@@ -747,9 +743,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -793,11 +789,6 @@
       <c r="P4" t="s">
         <v>33</v>
       </c>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
       <c r="V4" t="s">
         <v>34</v>
       </c>
@@ -805,9 +796,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -845,13 +836,6 @@
       <c r="N5" t="s">
         <v>32</v>
       </c>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
       <c r="V5" t="s">
         <v>34</v>
       </c>

--- a/MyFramework_1/TestData/TD/TD.xlsx
+++ b/MyFramework_1/TestData/TD/TD.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagarajaK\eclipse-workspace\Git_Buckt1\MyFramework_1\TestData\TD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagarajaK\eclipse-workspace\selBasic\TestData\TD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6B96FF-A7C5-48B0-915C-9DC4555A0B86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72E78EF-20D7-40C0-AD7B-D8FAA078DD50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1_bkp" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -139,9 +139,6 @@
     <t>Apple USB C Charger cable</t>
   </si>
   <si>
-    <t>11/07/2020 13:27:05</t>
-  </si>
-  <si>
     <t>Branch - Office Supplies Requisiton Template.xlsx</t>
   </si>
   <si>
@@ -163,19 +160,83 @@
     <t>Branch - Office Supplies Requisiton Template3.xlsx</t>
   </si>
   <si>
-    <t>ViewSonic VX2757-MHD - LED monitor - Full HD (1080p) - 27"</t>
-  </si>
-  <si>
-    <t>96W USB-C Power Adapter MacBook Pro + USB-C Charge Cable (2M) Bundle</t>
-  </si>
-  <si>
-    <t>StarTech.com Portable USB C Multiport Video Adapter - 4k HDMI or VGA, USB 3.0</t>
+    <t>11/05/2020 20:10:43</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>ZIP</t>
+  </si>
+  <si>
+    <t>Morisville,NC,27560</t>
+  </si>
+  <si>
+    <t>11/07/2020 18:18:00</t>
+  </si>
+  <si>
+    <t>Morisville</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>27560</t>
+  </si>
+  <si>
+    <t>118800</t>
+  </si>
+  <si>
+    <t>Noorulla Khan</t>
+  </si>
+  <si>
+    <t>600, John Doe Drive</t>
+  </si>
+  <si>
+    <t>Cary,North Carolina,27519-0005</t>
+  </si>
+  <si>
+    <t>noorullak@in.ibm.com</t>
+  </si>
+  <si>
+    <t>919 450 4444</t>
+  </si>
+  <si>
+    <t>P K Bhat</t>
+  </si>
+  <si>
+    <t>pkbhat@in.ibm.com</t>
+  </si>
+  <si>
+    <t>Cary</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>27519-0005</t>
+  </si>
+  <si>
+    <t>Morisville,North Carolina,27560</t>
+  </si>
+  <si>
+    <t>Morisville,North carolina,27560</t>
+  </si>
+  <si>
+    <t>North carolina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,10 +312,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,19 +631,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213F3DC-B182-452E-AF46-9D4704FF2230}">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -651,13 +713,22 @@
       <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -672,7 +743,7 @@
         <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
         <v>28</v>
@@ -687,65 +758,97 @@
         <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" t="s">
-        <v>44</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
       <c r="V2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" t="s">
         <v>34</v>
       </c>
-      <c r="X2" t="s">
-        <v>35</v>
+      <c r="Y2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
         <v>32</v>
       </c>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
       <c r="V3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="X3" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -754,13 +857,13 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
         <v>28</v>
@@ -789,16 +892,30 @@
       <c r="P4" t="s">
         <v>33</v>
       </c>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
       <c r="V4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="X4" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -807,13 +924,13 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
         <v>28</v>
@@ -836,11 +953,27 @@
       <c r="N5" t="s">
         <v>32</v>
       </c>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
       <c r="V5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="X5" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -851,13 +984,292 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F040DFB-EF58-4811-8F23-96D87781F8F2}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F31BAD-4420-43C5-ACD9-AEE51E1E5E10}">
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" t="s">
+        <v>41</v>
+      </c>
+      <c r="X5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyFramework_1/TestData/TD/TD.xlsx
+++ b/MyFramework_1/TestData/TD/TD.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagarajaK\eclipse-workspace\selBasic\TestData\TD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagarajaK\eclipse-workspace\Git_Buckt1\MyFramework_1\TestData\TD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72E78EF-20D7-40C0-AD7B-D8FAA078DD50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55FC332-F753-40FA-B6CA-57A598FFD830}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -230,13 +230,18 @@
   </si>
   <si>
     <t>North carolina</t>
+  </si>
+  <si>
+    <t>96W USB-C Power Adapter MacBook Pro + USB-C Charge Cable (2M) Bundle</t>
+  </si>
+  <si>
+    <t>StarTech.com USB C to Gigabit Ethernet Adapter - Black - USB 3.1 to RJ45 LAN Net</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -634,13 +639,13 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+      <selection activeCell="L3" sqref="L3:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
@@ -726,9 +731,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -758,19 +763,8 @@
         <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
+        <v>65</v>
+      </c>
       <c r="V2" t="s">
         <v>47</v>
       </c>
@@ -787,9 +781,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -818,18 +812,9 @@
       <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
+      <c r="M3" t="s">
+        <v>66</v>
+      </c>
       <c r="V3" t="s">
         <v>47</v>
       </c>
@@ -846,9 +831,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -877,9 +862,6 @@
       <c r="K4" t="s">
         <v>31</v>
       </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
       <c r="M4" t="s">
         <v>33</v>
       </c>
@@ -892,11 +874,6 @@
       <c r="P4" t="s">
         <v>33</v>
       </c>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
       <c r="V4" t="s">
         <v>47</v>
       </c>
@@ -913,9 +890,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -944,22 +921,12 @@
       <c r="K5" t="s">
         <v>31</v>
       </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
       <c r="M5" t="s">
         <v>33</v>
       </c>
       <c r="N5" t="s">
         <v>32</v>
       </c>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
       <c r="V5" t="s">
         <v>47</v>
       </c>
@@ -993,8 +960,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">

--- a/MyFramework_1/TestData/TD/TD.xlsx
+++ b/MyFramework_1/TestData/TD/TD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagarajaK\eclipse-workspace\Git_Buckt1\MyFramework_1\TestData\TD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DeveshBhardwaj\Documents\Devesh\development\GIT BOND\MyFramework_1\TestData\TD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55FC332-F753-40FA-B6CA-57A598FFD830}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C321771-9B20-4CD6-87DF-B8BCC2924B96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>StarTech.com USB C to Gigabit Ethernet Adapter - Black - USB 3.1 to RJ45 LAN Net</t>
+  </si>
+  <si>
+    <t>27560-1243</t>
   </si>
 </sst>
 </file>
@@ -638,17 +641,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213F3DC-B182-452E-AF46-9D4704FF2230}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -731,7 +734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -778,10 +781,10 @@
         <v>49</v>
       </c>
       <c r="AA2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -831,7 +834,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -890,7 +893,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -958,13 +961,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1038,7 +1041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1085,7 +1088,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1129,7 +1132,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1185,7 +1188,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>

--- a/MyFramework_1/TestData/TD/TD.xlsx
+++ b/MyFramework_1/TestData/TD/TD.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DeveshBhardwaj\Documents\Devesh\development\GIT BOND\MyFramework_1\TestData\TD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagarajaK\eclipse-workspace\Git_Buckt1\MyFramework_1\TestData\TD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C321771-9B20-4CD6-87DF-B8BCC2924B96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD863E3-C1C6-48C5-B471-0073B540A21C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -239,12 +239,19 @@
   </si>
   <si>
     <t>27560-1243</t>
+  </si>
+  <si>
+    <t>Invalid Product exist</t>
+  </si>
+  <si>
+    <t>EVOLVE 65 WIRELESS BLUETOOTH SINGLE EAR HEADSET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -642,16 +649,16 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -734,10 +741,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -768,6 +778,9 @@
       <c r="L2" t="s">
         <v>65</v>
       </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
       <c r="V2" t="s">
         <v>47</v>
       </c>
@@ -784,10 +797,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
@@ -815,6 +831,9 @@
       <c r="K3" t="s">
         <v>58</v>
       </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
       <c r="M3" t="s">
         <v>66</v>
       </c>
@@ -834,10 +853,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
@@ -865,6 +887,9 @@
       <c r="K4" t="s">
         <v>31</v>
       </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
       <c r="M4" t="s">
         <v>33</v>
       </c>
@@ -893,7 +918,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -924,11 +949,8 @@
       <c r="K5" t="s">
         <v>31</v>
       </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" t="s">
-        <v>32</v>
+      <c r="L5" t="s">
+        <v>69</v>
       </c>
       <c r="V5" t="s">
         <v>47</v>
@@ -961,13 +983,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1041,7 +1063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1088,7 +1110,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1132,7 +1154,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1188,7 +1210,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>

--- a/MyFramework_1/TestData/TD/TD.xlsx
+++ b/MyFramework_1/TestData/TD/TD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagarajaK\eclipse-workspace\Git_Buckt1\MyFramework_1\TestData\TD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DeveshBhardwaj\Documents\Devesh\development\GIT BOND 2\MyFramework_1\TestData\TD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD863E3-C1C6-48C5-B471-0073B540A21C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4173172-75A3-4B58-BE0C-C20F1911C291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -175,76 +175,40 @@
     <t>ZIP</t>
   </si>
   <si>
-    <t>Morisville,NC,27560</t>
-  </si>
-  <si>
     <t>11/07/2020 18:18:00</t>
   </si>
   <si>
     <t>Morisville</t>
   </si>
   <si>
+    <t>Morisville,North carolina,27560</t>
+  </si>
+  <si>
+    <t>96W USB-C Power Adapter MacBook Pro + USB-C Charge Cable (2M) Bundle</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
-    <t>27560</t>
-  </si>
-  <si>
-    <t>118800</t>
-  </si>
-  <si>
-    <t>Noorulla Khan</t>
-  </si>
-  <si>
-    <t>600, John Doe Drive</t>
-  </si>
-  <si>
-    <t>Cary,North Carolina,27519-0005</t>
-  </si>
-  <si>
-    <t>noorullak@in.ibm.com</t>
-  </si>
-  <si>
-    <t>919 450 4444</t>
-  </si>
-  <si>
-    <t>P K Bhat</t>
-  </si>
-  <si>
-    <t>pkbhat@in.ibm.com</t>
-  </si>
-  <si>
-    <t>Cary</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>27519-0005</t>
-  </si>
-  <si>
-    <t>Morisville,North Carolina,27560</t>
-  </si>
-  <si>
-    <t>Morisville,North carolina,27560</t>
-  </si>
-  <si>
-    <t>North carolina</t>
-  </si>
-  <si>
-    <t>96W USB-C Power Adapter MacBook Pro + USB-C Charge Cable (2M) Bundle</t>
-  </si>
-  <si>
-    <t>StarTech.com USB C to Gigabit Ethernet Adapter - Black - USB 3.1 to RJ45 LAN Net</t>
-  </si>
-  <si>
-    <t>27560-1243</t>
-  </si>
-  <si>
-    <t>Invalid Product exist</t>
-  </si>
-  <si>
-    <t>EVOLVE 65 WIRELESS BLUETOOTH SINGLE EAR HEADSET</t>
+    <t>27560-1234</t>
+  </si>
+  <si>
+    <t>Mohammed Asif</t>
+  </si>
+  <si>
+    <t>Submission completed with order number: Request details    /    PR457399</t>
+  </si>
+  <si>
+    <t>Submission completed with order number: Request details    /    PR457401</t>
+  </si>
+  <si>
+    <t>ViewSonic VX2757-MHD - LED monitor - Full HD (1080p) - 27"</t>
+  </si>
+  <si>
+    <t>Wrong product added for Submission</t>
+  </si>
+  <si>
+    <t>Submission completed with order number: Request details    /    PR457407</t>
   </si>
 </sst>
 </file>
@@ -646,19 +610,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213F3DC-B182-452E-AF46-9D4704FF2230}">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="60.88671875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -741,12 +707,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -755,13 +721,13 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
         <v>28</v>
@@ -776,196 +742,75 @@
         <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="V2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" t="s">
         <v>47</v>
       </c>
-      <c r="X2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>48</v>
-      </c>
       <c r="Z2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="V3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" t="s">
         <v>47</v>
       </c>
-      <c r="X3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>59</v>
-      </c>
       <c r="Z3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AA3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" t="s">
-        <v>47</v>
-      </c>
-      <c r="X4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s">
-        <v>69</v>
-      </c>
-      <c r="V5" t="s">
-        <v>47</v>
-      </c>
-      <c r="X5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -980,16 +825,16 @@
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1063,7 +908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1110,7 +955,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1154,7 +999,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1210,7 +1055,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>

--- a/MyFramework_1/TestData/TD/TD.xlsx
+++ b/MyFramework_1/TestData/TD/TD.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DeveshBhardwaj\Documents\Devesh\development\GIT BOND\MyFramework_1\TestData\TD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DeveshBhardwaj\Documents\Devesh\development\GIT BOND 2\MyFramework_1\TestData\TD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C321771-9B20-4CD6-87DF-B8BCC2924B96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4173172-75A3-4B58-BE0C-C20F1911C291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -175,76 +175,47 @@
     <t>ZIP</t>
   </si>
   <si>
-    <t>Morisville,NC,27560</t>
-  </si>
-  <si>
     <t>11/07/2020 18:18:00</t>
   </si>
   <si>
     <t>Morisville</t>
   </si>
   <si>
+    <t>Morisville,North carolina,27560</t>
+  </si>
+  <si>
+    <t>96W USB-C Power Adapter MacBook Pro + USB-C Charge Cable (2M) Bundle</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
-    <t>27560</t>
-  </si>
-  <si>
-    <t>118800</t>
-  </si>
-  <si>
-    <t>Noorulla Khan</t>
-  </si>
-  <si>
-    <t>600, John Doe Drive</t>
-  </si>
-  <si>
-    <t>Cary,North Carolina,27519-0005</t>
-  </si>
-  <si>
-    <t>noorullak@in.ibm.com</t>
-  </si>
-  <si>
-    <t>919 450 4444</t>
-  </si>
-  <si>
-    <t>P K Bhat</t>
-  </si>
-  <si>
-    <t>pkbhat@in.ibm.com</t>
-  </si>
-  <si>
-    <t>Cary</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>27519-0005</t>
-  </si>
-  <si>
-    <t>Morisville,North Carolina,27560</t>
-  </si>
-  <si>
-    <t>Morisville,North carolina,27560</t>
-  </si>
-  <si>
-    <t>North carolina</t>
-  </si>
-  <si>
-    <t>96W USB-C Power Adapter MacBook Pro + USB-C Charge Cable (2M) Bundle</t>
-  </si>
-  <si>
-    <t>StarTech.com USB C to Gigabit Ethernet Adapter - Black - USB 3.1 to RJ45 LAN Net</t>
-  </si>
-  <si>
-    <t>27560-1243</t>
+    <t>27560-1234</t>
+  </si>
+  <si>
+    <t>Mohammed Asif</t>
+  </si>
+  <si>
+    <t>Submission completed with order number: Request details    /    PR457399</t>
+  </si>
+  <si>
+    <t>Submission completed with order number: Request details    /    PR457401</t>
+  </si>
+  <si>
+    <t>ViewSonic VX2757-MHD - LED monitor - Full HD (1080p) - 27"</t>
+  </si>
+  <si>
+    <t>Wrong product added for Submission</t>
+  </si>
+  <si>
+    <t>Submission completed with order number: Request details    /    PR457407</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -639,16 +610,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213F3DC-B182-452E-AF46-9D4704FF2230}">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="60.88671875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
@@ -738,6 +711,9 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -745,13 +721,13 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
         <v>28</v>
@@ -766,184 +742,75 @@
         <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="V2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" t="s">
         <v>47</v>
       </c>
-      <c r="X2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>48</v>
-      </c>
       <c r="Z2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="s">
-        <v>66</v>
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
       </c>
       <c r="V3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" t="s">
         <v>47</v>
       </c>
-      <c r="X3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>59</v>
-      </c>
       <c r="Z3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AA3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" t="s">
-        <v>47</v>
-      </c>
-      <c r="X4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V5" t="s">
-        <v>47</v>
-      </c>
-      <c r="X5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -958,13 +825,13 @@
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">

--- a/MyFramework_1/TestData/TD/TD.xlsx
+++ b/MyFramework_1/TestData/TD/TD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DeveshBhardwaj\Documents\Devesh\development\GIT BOND 2\MyFramework_1\TestData\TD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagarajaK\eclipse-workspace\selBasic\TestData\TD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4173172-75A3-4B58-BE0C-C20F1911C291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72E78EF-20D7-40C0-AD7B-D8FAA078DD50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -175,40 +175,67 @@
     <t>ZIP</t>
   </si>
   <si>
-    <t>11/07/2020 18:18:00</t>
+    <t>Morisville,NC,27560</t>
+  </si>
+  <si>
+    <t>11/09/2020 11:33:39</t>
   </si>
   <si>
     <t>Morisville</t>
   </si>
   <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>27560</t>
+  </si>
+  <si>
+    <t>118800</t>
+  </si>
+  <si>
+    <t>Noorulla Khan</t>
+  </si>
+  <si>
+    <t>600, John Doe Drive</t>
+  </si>
+  <si>
+    <t>Cary,North Carolina,27519-0005</t>
+  </si>
+  <si>
+    <t>noorullak@in.ibm.com</t>
+  </si>
+  <si>
+    <t>919 450 4444</t>
+  </si>
+  <si>
+    <t>P K Bhat</t>
+  </si>
+  <si>
+    <t>pkbhat@in.ibm.com</t>
+  </si>
+  <si>
+    <t>Cary</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>27519-0005</t>
+  </si>
+  <si>
+    <t>Morisville,North Carolina,27560</t>
+  </si>
+  <si>
     <t>Morisville,North carolina,27560</t>
   </si>
   <si>
-    <t>96W USB-C Power Adapter MacBook Pro + USB-C Charge Cable (2M) Bundle</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>27560-1234</t>
-  </si>
-  <si>
-    <t>Mohammed Asif</t>
-  </si>
-  <si>
-    <t>Submission completed with order number: Request details    /    PR457399</t>
-  </si>
-  <si>
-    <t>Submission completed with order number: Request details    /    PR457401</t>
-  </si>
-  <si>
-    <t>ViewSonic VX2757-MHD - LED monitor - Full HD (1080p) - 27"</t>
-  </si>
-  <si>
-    <t>Wrong product added for Submission</t>
-  </si>
-  <si>
-    <t>Submission completed with order number: Request details    /    PR457407</t>
+    <t>North carolina</t>
+  </si>
+  <si>
+    <t>11/09/2020 14:57:31</t>
+  </si>
+  <si>
+    <t>11/09/2020 17:54:31</t>
   </si>
 </sst>
 </file>
@@ -610,21 +637,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213F3DC-B182-452E-AF46-9D4704FF2230}">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="60.88671875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -707,12 +732,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -721,13 +743,13 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
         <v>28</v>
@@ -742,75 +764,722 @@
         <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
       <c r="V2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Y2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
         <v>52</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y4" t="s">
         <v>48</v>
       </c>
-      <c r="H3" t="s">
+      <c r="Z4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J5" t="s">
         <v>30</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K5" t="s">
         <v>31</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z6" t="s">
         <v>49</v>
       </c>
-      <c r="V3" t="s">
+      <c r="AA6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7" t="s">
+        <v>65</v>
+      </c>
+      <c r="X7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8" t="s">
+        <v>65</v>
+      </c>
+      <c r="X8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9" t="s">
+        <v>65</v>
+      </c>
+      <c r="X9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
         <v>46</v>
       </c>
-      <c r="X3" t="s">
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10" t="s">
+        <v>66</v>
+      </c>
+      <c r="X10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12" t="s">
+        <v>66</v>
+      </c>
+      <c r="X12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13" t="s">
+        <v>66</v>
+      </c>
+      <c r="X13" t="s">
         <v>40</v>
       </c>
-      <c r="Y3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="Y13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA13" t="s">
         <v>50</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -825,16 +1494,16 @@
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -908,7 +1577,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -955,7 +1624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -999,7 +1668,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1055,7 +1724,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>

--- a/MyFramework_1/TestData/TD/TD.xlsx
+++ b/MyFramework_1/TestData/TD/TD.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagarajaK\eclipse-workspace\selBasic\TestData\TD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagarajaK\eclipse-workspace\Git_Buckt1\MyFramework_1\TestData\TD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72E78EF-20D7-40C0-AD7B-D8FAA078DD50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F610EAB-8AFC-47DE-B0CF-A3CA9B09D679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10180" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -230,13 +230,15 @@
   </si>
   <si>
     <t>North carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananth </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -634,13 +636,13 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
@@ -726,9 +728,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -763,14 +765,6 @@
       <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
       <c r="V2" t="s">
         <v>47</v>
       </c>
@@ -787,9 +781,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -821,15 +815,6 @@
       <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
       <c r="V3" t="s">
         <v>47</v>
       </c>
@@ -846,9 +831,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -892,11 +877,6 @@
       <c r="P4" t="s">
         <v>33</v>
       </c>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
       <c r="V4" t="s">
         <v>47</v>
       </c>
@@ -913,9 +893,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -939,7 +919,7 @@
         <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s">
         <v>31</v>
@@ -953,13 +933,6 @@
       <c r="N5" t="s">
         <v>32</v>
       </c>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
       <c r="V5" t="s">
         <v>47</v>
       </c>
@@ -993,8 +966,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">

--- a/MyFramework_1/TestData/TD/TD.xlsx
+++ b/MyFramework_1/TestData/TD/TD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DeveshBhardwaj\Documents\Devesh\development\GIT BOND 3\MyFramework_1\TestData\TD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5795B5-CCF2-4DCF-83FB-D6BE5CD58F3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC72A2B-58B3-456A-9D9A-FB90E53CA92A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -187,9 +187,6 @@
     <t>NC</t>
   </si>
   <si>
-    <t>27560</t>
-  </si>
-  <si>
     <t>118800</t>
   </si>
   <si>
@@ -223,25 +220,31 @@
     <t>ViewSonic VX2757-MHD - LED monitor - Full HD (1080p) - 27"</t>
   </si>
   <si>
+    <t>Declined -- Total amount greater than $150.00</t>
+  </si>
+  <si>
+    <t>Apple Magic Keyboard - keyboard - US</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>abcde</t>
+  </si>
+  <si>
+    <t>Wrong address provided</t>
+  </si>
+  <si>
+    <t>27560-0001</t>
+  </si>
+  <si>
     <t>Wrong product added for Submission</t>
   </si>
   <si>
-    <t>Declined -- Total amount greater than $150.00</t>
-  </si>
-  <si>
-    <t>Apple Magic Keyboard - keyboard - US</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>abcd</t>
-  </si>
-  <si>
-    <t>abcde</t>
-  </si>
-  <si>
-    <t>Wrong address provided</t>
+    <t>Submission completed with order number: Request details    /    PR458767</t>
   </si>
 </sst>
 </file>
@@ -646,7 +649,7 @@
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -753,7 +756,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
@@ -774,7 +777,7 @@
         <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="V2" t="s">
         <v>47</v>
@@ -789,7 +792,7 @@
         <v>49</v>
       </c>
       <c r="AA2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
@@ -797,37 +800,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
         <v>51</v>
       </c>
-      <c r="E3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>52</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>53</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>54</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V3" t="s">
         <v>47</v>
@@ -836,13 +839,13 @@
         <v>36</v>
       </c>
       <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" t="s">
         <v>58</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>59</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
@@ -850,37 +853,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
         <v>51</v>
       </c>
-      <c r="E4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>52</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>53</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>54</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>55</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>56</v>
       </c>
-      <c r="K4" t="s">
-        <v>57</v>
-      </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="V4" t="s">
         <v>47</v>
@@ -889,13 +892,13 @@
         <v>36</v>
       </c>
       <c r="Y4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z4" t="s">
         <v>58</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>59</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/MyFramework_1/TestData/TD/TD.xlsx
+++ b/MyFramework_1/TestData/TD/TD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DeveshBhardwaj\Documents\Devesh\development\GIT BOND 3\MyFramework_1\TestData\TD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC72A2B-58B3-456A-9D9A-FB90E53CA92A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5A0CD2-407D-4C9F-824D-C88779C6F124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -241,10 +241,40 @@
     <t>27560-0001</t>
   </si>
   <si>
+    <t>Submission completed with order number: Request details    /    PR459290</t>
+  </si>
+  <si>
+    <t>abc1</t>
+  </si>
+  <si>
+    <t>Submission completed with order number: Request details    /    PR459320</t>
+  </si>
+  <si>
+    <t>Submission completed with order number: Request details    /    PR459324</t>
+  </si>
+  <si>
+    <t>Submission completed with order number: Request details    /    PR459347</t>
+  </si>
+  <si>
+    <t>Submission completed with order number: Request details    /    PR459350</t>
+  </si>
+  <si>
     <t>Wrong product added for Submission</t>
   </si>
   <si>
-    <t>Submission completed with order number: Request details    /    PR458767</t>
+    <t>Submission completed with order number: Request details    /    PR459413</t>
+  </si>
+  <si>
+    <t>Submission completed with order number: Request details    /    PR459420</t>
+  </si>
+  <si>
+    <t>Submission completed with order number: Request details    /    PR459421</t>
+  </si>
+  <si>
+    <t>Submission completed with order number: Request details    /    PR459423</t>
+  </si>
+  <si>
+    <t>Submission completed with order number: Request details    /    PR459450</t>
   </si>
 </sst>
 </file>
@@ -646,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213F3DC-B182-452E-AF46-9D4704FF2230}">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -800,52 +830,52 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V3" t="s">
         <v>47</v>
       </c>
       <c r="X3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="Z3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AA3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
@@ -853,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -862,7 +892,7 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -883,7 +913,7 @@
         <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V4" t="s">
         <v>47</v>
@@ -898,6 +928,59 @@
         <v>58</v>
       </c>
       <c r="AA4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA5" t="s">
         <v>59</v>
       </c>
     </row>

--- a/MyFramework_1/TestData/TD/TD.xlsx
+++ b/MyFramework_1/TestData/TD/TD.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>Submission completed with order number: Request details    /    PR457407</t>
+  </si>
+  <si>
+    <t>Wrong product found in checkout</t>
+  </si>
+  <si>
+    <t>Submission completed with order number: Request details    /    PR458079</t>
   </si>
 </sst>
 </file>
@@ -712,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -765,7 +771,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>

--- a/MyFramework_1/TestData/TD/TD.xlsx
+++ b/MyFramework_1/TestData/TD/TD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DeveshBhardwaj\Documents\Devesh\development\GIT BOND 3\MyFramework_1\TestData\TD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5A0CD2-407D-4C9F-824D-C88779C6F124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC1F3B0-4E22-4AC2-9E76-FC6DF84D41F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -175,15 +175,9 @@
     <t>ZIP</t>
   </si>
   <si>
-    <t>Morisville,NC,27560</t>
-  </si>
-  <si>
     <t>11/09/2020 11:33:39</t>
   </si>
   <si>
-    <t>Morisville</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -220,61 +214,37 @@
     <t>ViewSonic VX2757-MHD - LED monitor - Full HD (1080p) - 27"</t>
   </si>
   <si>
+    <t>Apple Magic Keyboard - keyboard - US</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>abcde</t>
+  </si>
+  <si>
+    <t>Wrong address provided</t>
+  </si>
+  <si>
+    <t>Declined -- Wrong item selected</t>
+  </si>
+  <si>
+    <t>Submission failed</t>
+  </si>
+  <si>
+    <t>Submission completed with order number: Request details    /    PR459843</t>
+  </si>
+  <si>
+    <t>Wrong product added for Submission</t>
+  </si>
+  <si>
+    <t>Submission completed with order number: Request details    /    PR459850</t>
+  </si>
+  <si>
     <t>Declined -- Total amount greater than $150.00</t>
   </si>
   <si>
-    <t>Apple Magic Keyboard - keyboard - US</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>abcd</t>
-  </si>
-  <si>
-    <t>abcde</t>
-  </si>
-  <si>
-    <t>Wrong address provided</t>
-  </si>
-  <si>
-    <t>27560-0001</t>
-  </si>
-  <si>
-    <t>Submission completed with order number: Request details    /    PR459290</t>
-  </si>
-  <si>
-    <t>abc1</t>
-  </si>
-  <si>
-    <t>Submission completed with order number: Request details    /    PR459320</t>
-  </si>
-  <si>
-    <t>Submission completed with order number: Request details    /    PR459324</t>
-  </si>
-  <si>
-    <t>Submission completed with order number: Request details    /    PR459347</t>
-  </si>
-  <si>
-    <t>Submission completed with order number: Request details    /    PR459350</t>
-  </si>
-  <si>
-    <t>Wrong product added for Submission</t>
-  </si>
-  <si>
-    <t>Submission completed with order number: Request details    /    PR459413</t>
-  </si>
-  <si>
-    <t>Submission completed with order number: Request details    /    PR459420</t>
-  </si>
-  <si>
-    <t>Submission completed with order number: Request details    /    PR459421</t>
-  </si>
-  <si>
-    <t>Submission completed with order number: Request details    /    PR459423</t>
-  </si>
-  <si>
-    <t>Submission completed with order number: Request details    /    PR459450</t>
+    <t>Submission completed with order number: Request details    /    PR459853</t>
   </si>
 </sst>
 </file>
@@ -676,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213F3DC-B182-452E-AF46-9D4704FF2230}">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -777,52 +747,52 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>62</v>
-      </c>
-      <c r="V2" t="s">
-        <v>47</v>
-      </c>
       <c r="X2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Z2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AA2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
@@ -830,158 +800,52 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z3" t="s">
         <v>47</v>
       </c>
-      <c r="X3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>49</v>
-      </c>
       <c r="AA3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" t="s">
-        <v>60</v>
-      </c>
-      <c r="V4" t="s">
-        <v>47</v>
-      </c>
-      <c r="X4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y4" t="s">
         <v>57</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" t="s">
-        <v>62</v>
-      </c>
-      <c r="V5" t="s">
-        <v>47</v>
-      </c>
-      <c r="X5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/MyFramework_1/TestData/TD/TD.xlsx
+++ b/MyFramework_1/TestData/TD/TD.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagarajaK\eclipse-workspace\Git_Buckt1\MyFramework_1\TestData\TD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DeveshBhardwaj\Documents\Devesh\development\GIT BOND 3\MyFramework_1\TestData\TD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F610EAB-8AFC-47DE-B0CF-A3CA9B09D679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC1F3B0-4E22-4AC2-9E76-FC6DF84D41F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10180" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -175,27 +175,15 @@
     <t>ZIP</t>
   </si>
   <si>
-    <t>Morisville,NC,27560</t>
-  </si>
-  <si>
-    <t>11/09/2020 21:48:11</t>
-  </si>
-  <si>
-    <t>Morisville</t>
+    <t>11/09/2020 11:33:39</t>
   </si>
   <si>
     <t>NC</t>
   </si>
   <si>
-    <t>27560</t>
-  </si>
-  <si>
     <t>118800</t>
   </si>
   <si>
-    <t>Noorulla Khan</t>
-  </si>
-  <si>
     <t>600, John Doe Drive</t>
   </si>
   <si>
@@ -223,22 +211,47 @@
     <t>27519-0005</t>
   </si>
   <si>
-    <t>Morisville,North Carolina,27560</t>
-  </si>
-  <si>
-    <t>Morisville,North carolina,27560</t>
-  </si>
-  <si>
-    <t>North carolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ananth </t>
+    <t>ViewSonic VX2757-MHD - LED monitor - Full HD (1080p) - 27"</t>
+  </si>
+  <si>
+    <t>Apple Magic Keyboard - keyboard - US</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>abcde</t>
+  </si>
+  <si>
+    <t>Wrong address provided</t>
+  </si>
+  <si>
+    <t>Declined -- Wrong item selected</t>
+  </si>
+  <si>
+    <t>Submission failed</t>
+  </si>
+  <si>
+    <t>Submission completed with order number: Request details    /    PR459843</t>
+  </si>
+  <si>
+    <t>Wrong product added for Submission</t>
+  </si>
+  <si>
+    <t>Submission completed with order number: Request details    /    PR459850</t>
+  </si>
+  <si>
+    <t>Declined -- Total amount greater than $150.00</t>
+  </si>
+  <si>
+    <t>Submission completed with order number: Request details    /    PR459853</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -633,19 +646,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213F3DC-B182-452E-AF46-9D4704FF2230}">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -728,225 +742,110 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" t="s">
-        <v>47</v>
-      </c>
       <c r="X2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Z2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AA2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
         <v>51</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>52</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>53</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>54</v>
       </c>
-      <c r="H3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="V3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X3" t="s">
         <v>36</v>
       </c>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Z3" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="AA3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" t="s">
-        <v>47</v>
-      </c>
-      <c r="X4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V5" t="s">
-        <v>47</v>
-      </c>
-      <c r="X5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -964,13 +863,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1044,7 +943,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1091,7 +990,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1135,7 +1034,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1191,7 +1090,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>

--- a/MyFramework_1/TestData/TD/TD.xlsx
+++ b/MyFramework_1/TestData/TD/TD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DeveshBhardwaj\Documents\Devesh\development\GIT BOND 3\MyFramework_1\TestData\TD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagarajaK\eclipse-workspace\Git_Buckt1\MyFramework_1\TestData\TD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC1F3B0-4E22-4AC2-9E76-FC6DF84D41F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F49154-71C6-4DC6-931F-81F0C00946BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10180" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="182">
   <si>
     <t>Date</t>
   </si>
@@ -175,76 +175,412 @@
     <t>ZIP</t>
   </si>
   <si>
-    <t>11/09/2020 11:33:39</t>
+    <t>11/02/2020</t>
+  </si>
+  <si>
+    <t>095286</t>
+  </si>
+  <si>
+    <t>Prabhu Selvaraju</t>
+  </si>
+  <si>
+    <t>1105 Hidden Ridge, APT 1022</t>
+  </si>
+  <si>
+    <t>Irving,Texas,75038-7910</t>
+  </si>
+  <si>
+    <t>prabhsel@in.ibm.com</t>
+  </si>
+  <si>
+    <t>469 442 9051</t>
+  </si>
+  <si>
+    <t>Raju Manuel</t>
+  </si>
+  <si>
+    <t>rajumanuel@in.ibm.com</t>
+  </si>
+  <si>
+    <t>11/11/2020 22:50:27</t>
+  </si>
+  <si>
+    <t>Branch - Office Supplies Requisiton Template Prabhu Selvaraju.xlsx</t>
+  </si>
+  <si>
+    <t>Irving</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>75038-7910</t>
+  </si>
+  <si>
+    <t>267511</t>
+  </si>
+  <si>
+    <t>Rajesh Kumar Pukhraj</t>
+  </si>
+  <si>
+    <t>1400 Wheelwright Pl</t>
+  </si>
+  <si>
+    <t>Cary,North Carolina,27519-6881</t>
+  </si>
+  <si>
+    <t>rpukhraj@in.ibm.com</t>
+  </si>
+  <si>
+    <t>571 265 9102</t>
+  </si>
+  <si>
+    <t>Sanjiv Srivastava</t>
+  </si>
+  <si>
+    <t>ssanjiv@in.ibm.com</t>
+  </si>
+  <si>
+    <t>Branch - Office Supplies Requisiton Template-267511.xlsx</t>
+  </si>
+  <si>
+    <t>Cary</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>27519-6881</t>
+  </si>
+  <si>
+    <t>11/03/2020</t>
+  </si>
+  <si>
+    <t>05771B</t>
+  </si>
+  <si>
+    <t>Jagan Mohan Reddy Ambati</t>
+  </si>
+  <si>
+    <t>1409 Roper Mountain Rd, Apt 278</t>
+  </si>
+  <si>
+    <t>Greenville,SC,29615-5165</t>
+  </si>
+  <si>
+    <t>Jagan.Reddy@in.ibm.com</t>
+  </si>
+  <si>
+    <t>864-484-0185</t>
+  </si>
+  <si>
+    <t>Sasi Praphakaran</t>
+  </si>
+  <si>
+    <t>spraphak@in.ibm.com</t>
+  </si>
+  <si>
+    <t>Branch - Office Supplies Requisiton Template_05771B.xlsx</t>
+  </si>
+  <si>
+    <t>Greenville</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>29615-5165</t>
+  </si>
+  <si>
+    <t>92558</t>
+  </si>
+  <si>
+    <t>Naveen l</t>
+  </si>
+  <si>
+    <t>502C Indian Creek Dr</t>
+  </si>
+  <si>
+    <t>Wilkes,Barre,, PA-18702-7879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	naveel12@in.ibm.com</t>
+  </si>
+  <si>
+    <t>5702624526</t>
+  </si>
+  <si>
+    <t>Paparao Putta</t>
+  </si>
+  <si>
+    <t>paparao.putta@in.ibm.com</t>
+  </si>
+  <si>
+    <t>Branch - Office Supplies Requisiton Template_092558.xlsx</t>
+  </si>
+  <si>
+    <t>Wilkes</t>
+  </si>
+  <si>
+    <t>Barre</t>
+  </si>
+  <si>
+    <t>, PA-18702-7879</t>
+  </si>
+  <si>
+    <t>10/30/2020</t>
+  </si>
+  <si>
+    <t>001810</t>
+  </si>
+  <si>
+    <t>Dhilshad P Syed</t>
+  </si>
+  <si>
+    <t>4730 NW 97th CT</t>
+  </si>
+  <si>
+    <t>Doral,Florida,33178-1977</t>
+  </si>
+  <si>
+    <t>dhilsyed@in.ibm.com</t>
+  </si>
+  <si>
+    <t>786 816 9801</t>
+  </si>
+  <si>
+    <t>Ambarish Mukherjee</t>
+  </si>
+  <si>
+    <t>ambmukh2@in.ibm.com</t>
+  </si>
+  <si>
+    <t>Branch - Office Supplies Requisiton Template_Dhilshad.xlsx</t>
+  </si>
+  <si>
+    <t>Doral</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>33178-1977</t>
+  </si>
+  <si>
+    <t>057603</t>
+  </si>
+  <si>
+    <t>Mathangi C Shanmugam</t>
+  </si>
+  <si>
+    <t>1132 Sweet Spot Cir</t>
+  </si>
+  <si>
+    <t>Morrisville,NC,27560-7010</t>
+  </si>
+  <si>
+    <t>mathshan@in.ibm.com</t>
+  </si>
+  <si>
+    <t>+1-919-641-2877</t>
+  </si>
+  <si>
+    <t>Gopinath N Gunti/India/IBM</t>
+  </si>
+  <si>
+    <t>gopgunti@in.ibm.com</t>
+  </si>
+  <si>
+    <t>Branch - Office Supplies Requisiton Template_Mathangi_057603.xlsx</t>
+  </si>
+  <si>
+    <t>Morrisville</t>
   </si>
   <si>
     <t>NC</t>
   </si>
   <si>
-    <t>118800</t>
-  </si>
-  <si>
-    <t>600, John Doe Drive</t>
-  </si>
-  <si>
-    <t>Cary,North Carolina,27519-0005</t>
-  </si>
-  <si>
-    <t>noorullak@in.ibm.com</t>
-  </si>
-  <si>
-    <t>919 450 4444</t>
-  </si>
-  <si>
-    <t>P K Bhat</t>
-  </si>
-  <si>
-    <t>pkbhat@in.ibm.com</t>
-  </si>
-  <si>
-    <t>Cary</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>27519-0005</t>
-  </si>
-  <si>
-    <t>ViewSonic VX2757-MHD - LED monitor - Full HD (1080p) - 27"</t>
-  </si>
-  <si>
-    <t>Apple Magic Keyboard - keyboard - US</t>
-  </si>
-  <si>
-    <t>abcd</t>
-  </si>
-  <si>
-    <t>abcde</t>
-  </si>
-  <si>
-    <t>Wrong address provided</t>
-  </si>
-  <si>
-    <t>Declined -- Wrong item selected</t>
-  </si>
-  <si>
-    <t>Submission failed</t>
-  </si>
-  <si>
-    <t>Submission completed with order number: Request details    /    PR459843</t>
-  </si>
-  <si>
-    <t>Wrong product added for Submission</t>
-  </si>
-  <si>
-    <t>Submission completed with order number: Request details    /    PR459850</t>
-  </si>
-  <si>
-    <t>Declined -- Total amount greater than $150.00</t>
-  </si>
-  <si>
-    <t>Submission completed with order number: Request details    /    PR459853</t>
+    <t>27560-7010</t>
+  </si>
+  <si>
+    <t>10/27/2020</t>
+  </si>
+  <si>
+    <t>00289M</t>
+  </si>
+  <si>
+    <t>BALASUBRAMANIAN MANICKAVASAGAM</t>
+  </si>
+  <si>
+    <t>29 SKYSTOP GDNS, APT 13,</t>
+  </si>
+  <si>
+    <t>PARLIN,NJ and,08859-0001</t>
+  </si>
+  <si>
+    <t>balasman@in.ibm.com</t>
+  </si>
+  <si>
+    <t>73217157071</t>
+  </si>
+  <si>
+    <t>Sudeep K Banerjee</t>
+  </si>
+  <si>
+    <t>Sudeep.Banerjee@in.ibm.com</t>
+  </si>
+  <si>
+    <t>Branch - Office Supplies Requisiton-BalaManickavasagam.xlsx</t>
+  </si>
+  <si>
+    <t>PARLIN</t>
+  </si>
+  <si>
+    <t>NJ and</t>
+  </si>
+  <si>
+    <t>08859-0001</t>
+  </si>
+  <si>
+    <t>08608E</t>
+  </si>
+  <si>
+    <t>Seema Shanmugam</t>
+  </si>
+  <si>
+    <t>14155 Dunbritton Lane, 1216</t>
+  </si>
+  <si>
+    <t>Charlotte,North Carolina,28277-2432</t>
+  </si>
+  <si>
+    <t>seeshanm@in.ibm.com</t>
+  </si>
+  <si>
+    <t>4792069072</t>
+  </si>
+  <si>
+    <t>Anand Raghavendran</t>
+  </si>
+  <si>
+    <t>araghave@in.ibm.com</t>
+  </si>
+  <si>
+    <t>Branch - Office Supplies Requisiton_08608E.xlsx</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>28277-2432</t>
+  </si>
+  <si>
+    <t>02000I</t>
+  </si>
+  <si>
+    <t>CHANDAN SINGH THAKUR</t>
+  </si>
+  <si>
+    <t>22 DAYTON DR., APT 141A</t>
+  </si>
+  <si>
+    <t>Edison,New Jersey,08820</t>
+  </si>
+  <si>
+    <t>cthakur1@in.ibm.com</t>
+  </si>
+  <si>
+    <t>8482478076</t>
+  </si>
+  <si>
+    <t>NANDA REDDY</t>
+  </si>
+  <si>
+    <t>nanda.reddy@in.ibm.com</t>
+  </si>
+  <si>
+    <t>Logitech Triathlon M720 Mouse</t>
+  </si>
+  <si>
+    <t>Evolve 40 UC USB A-corded Binaural headset</t>
+  </si>
+  <si>
+    <t>Branch - Office Supplies Requisiton_Chandan Singh Thakur.xlsx</t>
+  </si>
+  <si>
+    <t>Edison</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>08820</t>
+  </si>
+  <si>
+    <t>718319</t>
+  </si>
+  <si>
+    <t>Srinivasa Eachur Prakash</t>
+  </si>
+  <si>
+    <t>2662 Scotland Ct, Apt # 301</t>
+  </si>
+  <si>
+    <t>Mounds,View,55112-4781</t>
+  </si>
+  <si>
+    <t>srprakas@in.ibm.com</t>
+  </si>
+  <si>
+    <t>612-202-2952</t>
+  </si>
+  <si>
+    <t>Peayoosh Kumar Srivastava</t>
+  </si>
+  <si>
+    <t>peayoosh.srivastava@in.ibm.com</t>
+  </si>
+  <si>
+    <t>Branch - Office Supplies_Srinivas_Prakash.xlsx</t>
+  </si>
+  <si>
+    <t>Mounds</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>55112-4781</t>
+  </si>
+  <si>
+    <t>02636C</t>
+  </si>
+  <si>
+    <t>Rima Majumdar</t>
+  </si>
+  <si>
+    <t>2658 Scotland Court, Apt#311,</t>
+  </si>
+  <si>
+    <t>Mounds,View,55112-0007</t>
+  </si>
+  <si>
+    <t>rima.majumdar@in.ibm.com</t>
+  </si>
+  <si>
+    <t>6127571582</t>
+  </si>
+  <si>
+    <t>Branch Office Supplies - Rima.xlsx</t>
+  </si>
+  <si>
+    <t>55112-0007</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Invalid Product exist</t>
   </si>
 </sst>
 </file>
@@ -646,20 +982,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213F3DC-B182-452E-AF46-9D4704FF2230}">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="35.36328125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="29.26953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="31.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.36328125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="24.7265625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="29.36328125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="27.36328125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="38.36328125" collapsed="true"/>
+    <col min="15" max="20" bestFit="true" customWidth="true" width="5.81640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="6.81640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="18.1796875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="5.7265625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="58.6328125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="9.6328125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -742,21 +1094,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
         <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
       </c>
       <c r="F2" t="s">
         <v>49</v>
@@ -777,75 +1129,558 @@
         <v>54</v>
       </c>
       <c r="L2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>155</v>
+      </c>
+      <c r="V2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z2" t="s">
         <v>58</v>
       </c>
-      <c r="V2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>56</v>
-      </c>
       <c r="AA2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
         <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>154</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
       </c>
       <c r="V3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" t="s">
+        <v>154</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>155</v>
+      </c>
+      <c r="V4" t="s">
+        <v>55</v>
+      </c>
+      <c r="X4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="X3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" t="s">
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" t="s">
+        <v>154</v>
+      </c>
+      <c r="V5" t="s">
         <v>55</v>
       </c>
-      <c r="Z3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>57</v>
+      <c r="X5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X6" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" t="s">
+        <v>55</v>
+      </c>
+      <c r="X7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" t="s">
+        <v>128</v>
+      </c>
+      <c r="J8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8" t="s">
+        <v>130</v>
+      </c>
+      <c r="L8" t="s">
+        <v>155</v>
+      </c>
+      <c r="V8" t="s">
+        <v>55</v>
+      </c>
+      <c r="X8" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K9" t="s">
+        <v>142</v>
+      </c>
+      <c r="L9" t="s">
+        <v>155</v>
+      </c>
+      <c r="V9" t="s">
+        <v>55</v>
+      </c>
+      <c r="X9" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" t="s">
+        <v>152</v>
+      </c>
+      <c r="K10" t="s">
+        <v>153</v>
+      </c>
+      <c r="L10" t="s">
+        <v>154</v>
+      </c>
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" t="s">
+        <v>155</v>
+      </c>
+      <c r="V10" t="s">
+        <v>55</v>
+      </c>
+      <c r="X10" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H11" t="s">
+        <v>164</v>
+      </c>
+      <c r="I11" t="s">
+        <v>165</v>
+      </c>
+      <c r="J11" t="s">
+        <v>166</v>
+      </c>
+      <c r="K11" t="s">
+        <v>167</v>
+      </c>
+      <c r="L11" t="s">
+        <v>155</v>
+      </c>
+      <c r="V11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X11" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12" t="s">
+        <v>175</v>
+      </c>
+      <c r="H12" t="s">
+        <v>176</v>
+      </c>
+      <c r="I12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J12" t="s">
+        <v>166</v>
+      </c>
+      <c r="K12" t="s">
+        <v>167</v>
+      </c>
+      <c r="L12" t="s">
+        <v>155</v>
+      </c>
+      <c r="V12" t="s">
+        <v>55</v>
+      </c>
+      <c r="X12" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -863,13 +1698,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -943,7 +1778,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -990,7 +1825,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1034,7 +1869,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1090,7 +1925,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>

--- a/MyFramework_1/TestData/TD/TD.xlsx
+++ b/MyFramework_1/TestData/TD/TD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagarajaK\eclipse-workspace\Git_Buckt1\MyFramework_1\TestData\TD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F49154-71C6-4DC6-931F-81F0C00946BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742F8106-7A97-4464-94B3-30A58EC7033B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10180" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
+    <workbookView xWindow="20" yWindow="620" windowWidth="19180" windowHeight="10180" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="190">
   <si>
     <t>Date</t>
   </si>
@@ -175,409 +175,433 @@
     <t>ZIP</t>
   </si>
   <si>
-    <t>11/02/2020</t>
-  </si>
-  <si>
-    <t>095286</t>
-  </si>
-  <si>
-    <t>Prabhu Selvaraju</t>
-  </si>
-  <si>
-    <t>1105 Hidden Ridge, APT 1022</t>
-  </si>
-  <si>
-    <t>Irving,Texas,75038-7910</t>
-  </si>
-  <si>
-    <t>prabhsel@in.ibm.com</t>
-  </si>
-  <si>
-    <t>469 442 9051</t>
-  </si>
-  <si>
-    <t>Raju Manuel</t>
-  </si>
-  <si>
-    <t>rajumanuel@in.ibm.com</t>
-  </si>
-  <si>
-    <t>11/11/2020 22:50:27</t>
-  </si>
-  <si>
-    <t>Branch - Office Supplies Requisiton Template Prabhu Selvaraju.xlsx</t>
+    <t>11/12/2020</t>
+  </si>
+  <si>
+    <t>05322B</t>
+  </si>
+  <si>
+    <t>Rahul Yadav</t>
+  </si>
+  <si>
+    <t>5300 W Memorial Rd, APT 2Q</t>
+  </si>
+  <si>
+    <t>Oklahoma City</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>73142-2032</t>
+  </si>
+  <si>
+    <t>radyadav@in.ibm.com</t>
+  </si>
+  <si>
+    <t>405-719-5046</t>
+  </si>
+  <si>
+    <t>Rohit Mehta</t>
+  </si>
+  <si>
+    <t>romehta1@in.ibm.com</t>
+  </si>
+  <si>
+    <t>Lenovo Ultraslim Plus Wireless Keyboard &amp; Mouse</t>
+  </si>
+  <si>
+    <t>EVOLVE 40 UC USB-A CORDED BINAURAL HEADSET</t>
+  </si>
+  <si>
+    <t>Logitech Triathlon M720 - mouse - Bluetooth, 2.4 GHz</t>
+  </si>
+  <si>
+    <t>11/13/2020 15:41:25</t>
+  </si>
+  <si>
+    <t>05322B - Rahul Yadav.xlsx</t>
+  </si>
+  <si>
+    <t>053969</t>
+  </si>
+  <si>
+    <t>NIRAJ KUMAR</t>
+  </si>
+  <si>
+    <t>14504 BRIAR FOREST DR APT 715</t>
+  </si>
+  <si>
+    <t>HOUSTON</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>77077-1742</t>
+  </si>
+  <si>
+    <t>nirajlohani@in.ibm.com</t>
+  </si>
+  <si>
+    <t>248 839 9305</t>
+  </si>
+  <si>
+    <t>Gorakshanath Thube</t>
+  </si>
+  <si>
+    <t>gorthube@in.ibm.com</t>
+  </si>
+  <si>
+    <t>Apple USB-C Charge Cable - USB-C cable - 2 m</t>
+  </si>
+  <si>
+    <t>EVOLVE 65 WIRELESS BLUETOOTH SINGLE EAR HEADSET</t>
+  </si>
+  <si>
+    <t>053969 NIRAJ KUMAR.xlsx</t>
+  </si>
+  <si>
+    <t>66504</t>
+  </si>
+  <si>
+    <t>JAIKUMAR KOCHI RAMMOHAN</t>
+  </si>
+  <si>
+    <t>8809 RODEO DR APT 213</t>
+  </si>
+  <si>
+    <t>IRVING</t>
+  </si>
+  <si>
+    <t>75063-6352</t>
+  </si>
+  <si>
+    <t>JAIKUMAR.KR@IN.IBM.COM</t>
+  </si>
+  <si>
+    <t>214-714-5719</t>
+  </si>
+  <si>
+    <t>Shebeen Usman</t>
+  </si>
+  <si>
+    <t>ushebeen@in.ibm.com</t>
+  </si>
+  <si>
+    <t>T24i-20(A20238FT0)23.8 inch Monitor-HDMI</t>
+  </si>
+  <si>
+    <t>066504-JAIKUMAR KOCHI-Office Supplies Requisiton Template v2.0-4.xlsx</t>
+  </si>
+  <si>
+    <t>12/12/2020</t>
+  </si>
+  <si>
+    <t>641538</t>
+  </si>
+  <si>
+    <t>Tapas K Saha</t>
+  </si>
+  <si>
+    <t>587 Lakehurst Road, APT - GL</t>
+  </si>
+  <si>
+    <t>Waukegan</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>60085-6627</t>
+  </si>
+  <si>
+    <t>tapas.saha@in.ibm.com</t>
+  </si>
+  <si>
+    <t>224-413-7948</t>
+  </si>
+  <si>
+    <t>Sachin B Kulkarni</t>
+  </si>
+  <si>
+    <t>sachin.kulkarni@in.ibm.com</t>
+  </si>
+  <si>
+    <t>641538 - Tapas Saha.xlsx</t>
+  </si>
+  <si>
+    <t>08350F</t>
+  </si>
+  <si>
+    <t>RAGHAVENDER BITTLY</t>
+  </si>
+  <si>
+    <t>3980 OLD STERLINGTON RD APT#1502</t>
+  </si>
+  <si>
+    <t>MONROE</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>71203-2601</t>
+  </si>
+  <si>
+    <t>rabittly@in.ibm.com</t>
+  </si>
+  <si>
+    <t>318-509-9999</t>
+  </si>
+  <si>
+    <t>Jiby Joseph</t>
+  </si>
+  <si>
+    <t>jiby.joseph@in.ibm.com</t>
+  </si>
+  <si>
+    <t>EVOLVE 40 UC USB-A CORDED MONAURAL HEADSET</t>
+  </si>
+  <si>
+    <t>StarTech.com USB C to Gigabit Ethernet Adapter - Black - USB 3.1 to RJ45 LAN Net</t>
+  </si>
+  <si>
+    <t>Branch - Office Supplies Requisiton Bittley v2.0-4.xlsx</t>
+  </si>
+  <si>
+    <t>915452</t>
+  </si>
+  <si>
+    <t>Mahendran Shanmugam</t>
+  </si>
+  <si>
+    <t>4155 Essen Ln, Apt 180</t>
+  </si>
+  <si>
+    <t>Baton Rouge</t>
+  </si>
+  <si>
+    <t>70809-2143</t>
+  </si>
+  <si>
+    <t>smahendr@in.ibm.com</t>
+  </si>
+  <si>
+    <t>9199866707</t>
+  </si>
+  <si>
+    <t>Nilotpal.Sengupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nilotpal.sengupta@ibm.com</t>
+  </si>
+  <si>
+    <t>EVOLVE 65 WIRELESS BT DUAL EAR HEADSET W/STAND</t>
+  </si>
+  <si>
+    <t>StarTech.com USB 3.0 to Gigabit Ethernet Adapter - 10/100/1000 NIC Network Adapt</t>
+  </si>
+  <si>
+    <t>Branch - Office Supplies Requisiton Mahendran shanmugam - 915452v2.0-4.xlsx</t>
+  </si>
+  <si>
+    <t>078641</t>
+  </si>
+  <si>
+    <t>Nabanita Choudhury</t>
+  </si>
+  <si>
+    <t>2606 Society Drive</t>
+  </si>
+  <si>
+    <t>Claymont</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>19703-1709</t>
+  </si>
+  <si>
+    <t>nabanita.choudhury@in.ibm.com</t>
+  </si>
+  <si>
+    <t>+1-3023459079</t>
+  </si>
+  <si>
+    <t>Rajeev Gupta</t>
+  </si>
+  <si>
+    <t>rajeevgu@in.ibm.com</t>
+  </si>
+  <si>
+    <t>Branch - Office Supplies Requisiton Template v2.0-4_078641_Nabanita_Choudhury.xlsx</t>
+  </si>
+  <si>
+    <t>639570</t>
+  </si>
+  <si>
+    <t>Anirban Datta</t>
+  </si>
+  <si>
+    <t>1469 Creekside Drive ; Apt 3029</t>
+  </si>
+  <si>
+    <t>Walnut Creek</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>94596-7400</t>
+  </si>
+  <si>
+    <t>Anirban.Datta@in.ibm.com</t>
+  </si>
+  <si>
+    <t>925 639 4479</t>
+  </si>
+  <si>
+    <t>Chitralekha Datta</t>
+  </si>
+  <si>
+    <t>dchitral@in.ibm.com</t>
+  </si>
+  <si>
+    <t>Branch - Office Supplies Requisiton Template v2.0-4_Anirban Datta.xlsx</t>
+  </si>
+  <si>
+    <t>052170</t>
+  </si>
+  <si>
+    <t>Vikas Sharma</t>
+  </si>
+  <si>
+    <t>9548 Valley Ranch Pkwy E, Apt #1107</t>
   </si>
   <si>
     <t>Irving</t>
   </si>
   <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>75038-7910</t>
-  </si>
-  <si>
-    <t>267511</t>
-  </si>
-  <si>
-    <t>Rajesh Kumar Pukhraj</t>
-  </si>
-  <si>
-    <t>1400 Wheelwright Pl</t>
-  </si>
-  <si>
-    <t>Cary,North Carolina,27519-6881</t>
-  </si>
-  <si>
-    <t>rpukhraj@in.ibm.com</t>
-  </si>
-  <si>
-    <t>571 265 9102</t>
-  </si>
-  <si>
-    <t>Sanjiv Srivastava</t>
-  </si>
-  <si>
-    <t>ssanjiv@in.ibm.com</t>
-  </si>
-  <si>
-    <t>Branch - Office Supplies Requisiton Template-267511.xlsx</t>
-  </si>
-  <si>
-    <t>Cary</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>27519-6881</t>
-  </si>
-  <si>
-    <t>11/03/2020</t>
-  </si>
-  <si>
-    <t>05771B</t>
-  </si>
-  <si>
-    <t>Jagan Mohan Reddy Ambati</t>
-  </si>
-  <si>
-    <t>1409 Roper Mountain Rd, Apt 278</t>
-  </si>
-  <si>
-    <t>Greenville,SC,29615-5165</t>
-  </si>
-  <si>
-    <t>Jagan.Reddy@in.ibm.com</t>
-  </si>
-  <si>
-    <t>864-484-0185</t>
-  </si>
-  <si>
-    <t>Sasi Praphakaran</t>
-  </si>
-  <si>
-    <t>spraphak@in.ibm.com</t>
-  </si>
-  <si>
-    <t>Branch - Office Supplies Requisiton Template_05771B.xlsx</t>
-  </si>
-  <si>
-    <t>Greenville</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>29615-5165</t>
-  </si>
-  <si>
-    <t>92558</t>
-  </si>
-  <si>
-    <t>Naveen l</t>
-  </si>
-  <si>
-    <t>502C Indian Creek Dr</t>
-  </si>
-  <si>
-    <t>Wilkes,Barre,, PA-18702-7879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	naveel12@in.ibm.com</t>
-  </si>
-  <si>
-    <t>5702624526</t>
-  </si>
-  <si>
-    <t>Paparao Putta</t>
-  </si>
-  <si>
-    <t>paparao.putta@in.ibm.com</t>
-  </si>
-  <si>
-    <t>Branch - Office Supplies Requisiton Template_092558.xlsx</t>
-  </si>
-  <si>
-    <t>Wilkes</t>
-  </si>
-  <si>
-    <t>Barre</t>
-  </si>
-  <si>
-    <t>, PA-18702-7879</t>
-  </si>
-  <si>
-    <t>10/30/2020</t>
-  </si>
-  <si>
-    <t>001810</t>
-  </si>
-  <si>
-    <t>Dhilshad P Syed</t>
-  </si>
-  <si>
-    <t>4730 NW 97th CT</t>
-  </si>
-  <si>
-    <t>Doral,Florida,33178-1977</t>
-  </si>
-  <si>
-    <t>dhilsyed@in.ibm.com</t>
-  </si>
-  <si>
-    <t>786 816 9801</t>
-  </si>
-  <si>
-    <t>Ambarish Mukherjee</t>
-  </si>
-  <si>
-    <t>ambmukh2@in.ibm.com</t>
-  </si>
-  <si>
-    <t>Branch - Office Supplies Requisiton Template_Dhilshad.xlsx</t>
-  </si>
-  <si>
-    <t>Doral</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>33178-1977</t>
-  </si>
-  <si>
-    <t>057603</t>
-  </si>
-  <si>
-    <t>Mathangi C Shanmugam</t>
-  </si>
-  <si>
-    <t>1132 Sweet Spot Cir</t>
-  </si>
-  <si>
-    <t>Morrisville,NC,27560-7010</t>
-  </si>
-  <si>
-    <t>mathshan@in.ibm.com</t>
-  </si>
-  <si>
-    <t>+1-919-641-2877</t>
-  </si>
-  <si>
-    <t>Gopinath N Gunti/India/IBM</t>
-  </si>
-  <si>
-    <t>gopgunti@in.ibm.com</t>
-  </si>
-  <si>
-    <t>Branch - Office Supplies Requisiton Template_Mathangi_057603.xlsx</t>
-  </si>
-  <si>
-    <t>Morrisville</t>
+    <t>75063-4911</t>
+  </si>
+  <si>
+    <t>vikshar1@in.ibm.com</t>
+  </si>
+  <si>
+    <t>6194679248</t>
+  </si>
+  <si>
+    <t>Santosh D Pawar</t>
+  </si>
+  <si>
+    <t>santosh.pawar@in.ibm.com</t>
+  </si>
+  <si>
+    <t>VOYAGER 5200 UC WIRELESS BLUETOOTH HEADSET UC</t>
+  </si>
+  <si>
+    <t>Branch - Office Supplies Requisiton Template v2.0-4_VikasSharma_052170.xlsx</t>
+  </si>
+  <si>
+    <t>01205Q</t>
+  </si>
+  <si>
+    <t>Rajasekaran Periasamy</t>
+  </si>
+  <si>
+    <t>Apt # 204, 144 Galway Drive</t>
+  </si>
+  <si>
+    <t>Mooresville</t>
   </si>
   <si>
     <t>NC</t>
   </si>
   <si>
-    <t>27560-7010</t>
-  </si>
-  <si>
-    <t>10/27/2020</t>
-  </si>
-  <si>
-    <t>00289M</t>
-  </si>
-  <si>
-    <t>BALASUBRAMANIAN MANICKAVASAGAM</t>
-  </si>
-  <si>
-    <t>29 SKYSTOP GDNS, APT 13,</t>
-  </si>
-  <si>
-    <t>PARLIN,NJ and,08859-0001</t>
-  </si>
-  <si>
-    <t>balasman@in.ibm.com</t>
-  </si>
-  <si>
-    <t>73217157071</t>
-  </si>
-  <si>
-    <t>Sudeep K Banerjee</t>
-  </si>
-  <si>
-    <t>Sudeep.Banerjee@in.ibm.com</t>
-  </si>
-  <si>
-    <t>Branch - Office Supplies Requisiton-BalaManickavasagam.xlsx</t>
-  </si>
-  <si>
-    <t>PARLIN</t>
-  </si>
-  <si>
-    <t>NJ and</t>
-  </si>
-  <si>
-    <t>08859-0001</t>
-  </si>
-  <si>
-    <t>08608E</t>
-  </si>
-  <si>
-    <t>Seema Shanmugam</t>
-  </si>
-  <si>
-    <t>14155 Dunbritton Lane, 1216</t>
-  </si>
-  <si>
-    <t>Charlotte,North Carolina,28277-2432</t>
-  </si>
-  <si>
-    <t>seeshanm@in.ibm.com</t>
-  </si>
-  <si>
-    <t>4792069072</t>
-  </si>
-  <si>
-    <t>Anand Raghavendran</t>
-  </si>
-  <si>
-    <t>araghave@in.ibm.com</t>
-  </si>
-  <si>
-    <t>Branch - Office Supplies Requisiton_08608E.xlsx</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>28277-2432</t>
-  </si>
-  <si>
-    <t>02000I</t>
-  </si>
-  <si>
-    <t>CHANDAN SINGH THAKUR</t>
-  </si>
-  <si>
-    <t>22 DAYTON DR., APT 141A</t>
-  </si>
-  <si>
-    <t>Edison,New Jersey,08820</t>
-  </si>
-  <si>
-    <t>cthakur1@in.ibm.com</t>
-  </si>
-  <si>
-    <t>8482478076</t>
-  </si>
-  <si>
-    <t>NANDA REDDY</t>
-  </si>
-  <si>
-    <t>nanda.reddy@in.ibm.com</t>
-  </si>
-  <si>
-    <t>Logitech Triathlon M720 Mouse</t>
-  </si>
-  <si>
-    <t>Evolve 40 UC USB A-corded Binaural headset</t>
-  </si>
-  <si>
-    <t>Branch - Office Supplies Requisiton_Chandan Singh Thakur.xlsx</t>
-  </si>
-  <si>
-    <t>Edison</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>08820</t>
-  </si>
-  <si>
-    <t>718319</t>
-  </si>
-  <si>
-    <t>Srinivasa Eachur Prakash</t>
-  </si>
-  <si>
-    <t>2662 Scotland Ct, Apt # 301</t>
-  </si>
-  <si>
-    <t>Mounds,View,55112-4781</t>
-  </si>
-  <si>
-    <t>srprakas@in.ibm.com</t>
-  </si>
-  <si>
-    <t>612-202-2952</t>
-  </si>
-  <si>
-    <t>Peayoosh Kumar Srivastava</t>
-  </si>
-  <si>
-    <t>peayoosh.srivastava@in.ibm.com</t>
-  </si>
-  <si>
-    <t>Branch - Office Supplies_Srinivas_Prakash.xlsx</t>
-  </si>
-  <si>
-    <t>Mounds</t>
-  </si>
-  <si>
-    <t>View</t>
-  </si>
-  <si>
-    <t>55112-4781</t>
-  </si>
-  <si>
-    <t>02636C</t>
-  </si>
-  <si>
-    <t>Rima Majumdar</t>
-  </si>
-  <si>
-    <t>2658 Scotland Court, Apt#311,</t>
-  </si>
-  <si>
-    <t>Mounds,View,55112-0007</t>
-  </si>
-  <si>
-    <t>rima.majumdar@in.ibm.com</t>
-  </si>
-  <si>
-    <t>6127571582</t>
-  </si>
-  <si>
-    <t>Branch Office Supplies - Rima.xlsx</t>
-  </si>
-  <si>
-    <t>55112-0007</t>
-  </si>
-  <si>
-    <t>Passed</t>
+    <t>28117-5558</t>
+  </si>
+  <si>
+    <t>raperias@in.ibm.com</t>
+  </si>
+  <si>
+    <t>4693860871</t>
+  </si>
+  <si>
+    <t>Vamsi M Thirumala</t>
+  </si>
+  <si>
+    <t>Vamsi M Thirumala1/India/IBM</t>
+  </si>
+  <si>
+    <t>Branch - Office Supplies Vamsi  v2.0-4.xlsx</t>
+  </si>
+  <si>
+    <t>073574</t>
+  </si>
+  <si>
+    <t>Farid Ahmad</t>
+  </si>
+  <si>
+    <t>2106 Lakeview Drive</t>
+  </si>
+  <si>
+    <t>Parlin</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>08859-2252</t>
+  </si>
+  <si>
+    <t>fariahma@in.ibm.com</t>
+  </si>
+  <si>
+    <t>732 397 3266</t>
+  </si>
+  <si>
+    <t>Phani Kiran</t>
+  </si>
+  <si>
+    <t>phanikiran@in.ibm.com</t>
+  </si>
+  <si>
+    <t>Apple Magic Keyboard - keyboard - US</t>
+  </si>
+  <si>
+    <t>Farid Ahmad - Emp Id - 073574 -  11 12 2020.xlsx</t>
+  </si>
+  <si>
+    <t>018594</t>
+  </si>
+  <si>
+    <t>HILLOL MUKHERJEE</t>
+  </si>
+  <si>
+    <t>2330 Pleasant Hill Rd. Apt 20</t>
+  </si>
+  <si>
+    <t>Pleasant Hill</t>
+  </si>
+  <si>
+    <t>94523-3160</t>
+  </si>
+  <si>
+    <t>hilmukhe@in.ibm.com</t>
+  </si>
+  <si>
+    <t>925-914-7904</t>
+  </si>
+  <si>
+    <t>JOYJIT BOSE</t>
+  </si>
+  <si>
+    <t>joyjbose@in.ibm.com</t>
+  </si>
+  <si>
+    <t>Office Supplies Requisiton_018594_HILLOL MUKHERJEE.xlsx</t>
   </si>
   <si>
     <t>Invalid Product exist</t>
@@ -982,36 +1006,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213F3DC-B182-452E-AF46-9D4704FF2230}">
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="35.36328125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="29.26953125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="31.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="25.36328125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="24.7265625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="29.36328125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="27.36328125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="38.36328125" collapsed="true"/>
-    <col min="15" max="20" bestFit="true" customWidth="true" width="5.81640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="6.81640625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="18.1796875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="5.7265625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="58.6328125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="9.6328125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1031,75 +1038,72 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>
@@ -1129,207 +1133,214 @@
         <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s">
-        <v>155</v>
-      </c>
-      <c r="V2" t="s">
-        <v>55</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="O2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
       <c r="X2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Z2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>181</v>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
       </c>
       <c r="C3" t="s">
         <v>46</v>
       </c>
       <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3" t="s">
         <v>60</v>
       </c>
-      <c r="E3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="Z3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s">
         <v>66</v>
       </c>
-      <c r="K3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" t="s">
-        <v>154</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>71</v>
+      <c r="I4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" t="s">
-        <v>154</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>155</v>
-      </c>
-      <c r="V4" t="s">
-        <v>55</v>
-      </c>
-      <c r="X4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>84</v>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6" t="s">
         <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" t="s">
-        <v>154</v>
-      </c>
-      <c r="V5" t="s">
-        <v>55</v>
-      </c>
-      <c r="X5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" t="s">
-        <v>97</v>
       </c>
       <c r="D6" t="s">
         <v>98</v>
@@ -1356,48 +1367,57 @@
         <v>105</v>
       </c>
       <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="V6" t="s">
-        <v>55</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="M6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>108</v>
+      </c>
+      <c r="P6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
       <c r="X6" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="Z6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>181</v>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="I7" t="s">
         <v>115</v>
@@ -1409,30 +1429,38 @@
         <v>117</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="V7" t="s">
-        <v>55</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="M7" t="s">
+        <v>119</v>
+      </c>
+      <c r="N7" t="s">
+        <v>120</v>
+      </c>
+      <c r="O7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
       <c r="X7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="Z7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
         <v>123</v>
@@ -1459,228 +1487,318 @@
         <v>130</v>
       </c>
       <c r="L8" t="s">
-        <v>155</v>
-      </c>
-      <c r="V8" t="s">
-        <v>55</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N8" t="s">
+        <v>120</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
       <c r="X8" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="Z8" t="s">
         <v>133</v>
       </c>
-      <c r="AA8" t="s">
-        <v>134</v>
-      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
       </c>
       <c r="D9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" t="s">
         <v>135</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>136</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>137</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>138</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>139</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>140</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>141</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>142</v>
       </c>
-      <c r="L9" t="s">
-        <v>155</v>
-      </c>
-      <c r="V9" t="s">
-        <v>55</v>
-      </c>
+      <c r="M9" t="s">
+        <v>143</v>
+      </c>
+      <c r="N9" t="s">
+        <v>120</v>
+      </c>
+      <c r="O9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
       <c r="X9" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z9" t="s">
         <v>144</v>
       </c>
-      <c r="Z9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>145</v>
-      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
       </c>
       <c r="D10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" t="s">
         <v>146</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>147</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>148</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" t="s">
         <v>149</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>150</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>151</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>152</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>153</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" t="s">
         <v>154</v>
       </c>
-      <c r="M10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z10" t="s">
         <v>155</v>
       </c>
-      <c r="V10" t="s">
-        <v>55</v>
-      </c>
-      <c r="X10" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>159</v>
-      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
       </c>
       <c r="D11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H11" t="s">
         <v>160</v>
       </c>
-      <c r="E11" t="s">
+      <c r="I11" t="s">
         <v>161</v>
       </c>
-      <c r="F11" t="s">
+      <c r="J11" t="s">
         <v>162</v>
       </c>
-      <c r="G11" t="s">
+      <c r="K11" t="s">
         <v>163</v>
       </c>
-      <c r="H11" t="s">
+      <c r="L11" t="s">
         <v>164</v>
       </c>
-      <c r="I11" t="s">
+      <c r="M11" t="s">
         <v>165</v>
       </c>
-      <c r="J11" t="s">
+      <c r="N11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" t="s">
+        <v>154</v>
+      </c>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z11" t="s">
         <v>166</v>
       </c>
-      <c r="K11" t="s">
-        <v>167</v>
-      </c>
-      <c r="L11" t="s">
-        <v>155</v>
-      </c>
-      <c r="V11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X11" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>171</v>
-      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
       </c>
       <c r="C12" t="s">
         <v>46</v>
       </c>
       <c r="D12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I12" t="s">
         <v>172</v>
       </c>
-      <c r="E12" t="s">
+      <c r="J12" t="s">
         <v>173</v>
       </c>
-      <c r="F12" t="s">
+      <c r="K12" t="s">
         <v>174</v>
       </c>
-      <c r="G12" t="s">
+      <c r="L12" t="s">
         <v>175</v>
       </c>
-      <c r="H12" t="s">
+      <c r="M12" t="s">
         <v>176</v>
       </c>
-      <c r="I12" t="s">
+      <c r="N12" t="s">
         <v>177</v>
       </c>
-      <c r="J12" t="s">
-        <v>166</v>
-      </c>
-      <c r="K12" t="s">
-        <v>167</v>
-      </c>
-      <c r="L12" t="s">
-        <v>155</v>
-      </c>
-      <c r="V12" t="s">
-        <v>55</v>
-      </c>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
       <c r="X12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z12" t="s">
         <v>178</v>
       </c>
-      <c r="Y12" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA12" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
         <v>179</v>
+      </c>
+      <c r="E13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" t="s">
+        <v>182</v>
+      </c>
+      <c r="H13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" t="s">
+        <v>183</v>
+      </c>
+      <c r="J13" t="s">
+        <v>184</v>
+      </c>
+      <c r="K13" t="s">
+        <v>185</v>
+      </c>
+      <c r="L13" t="s">
+        <v>186</v>
+      </c>
+      <c r="M13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" t="s">
+        <v>121</v>
+      </c>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/MyFramework_1/TestData/TD/TD.xlsx
+++ b/MyFramework_1/TestData/TD/TD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagarajaK\eclipse-workspace\Git_Buckt1\MyFramework_1\TestData\TD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742F8106-7A97-4464-94B3-30A58EC7033B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A105E6-C70D-42BF-9AD3-BADE5A80EE18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="620" windowWidth="19180" windowHeight="10180" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="189">
   <si>
     <t>Date</t>
   </si>
@@ -602,9 +602,6 @@
   </si>
   <si>
     <t>Office Supplies Requisiton_018594_HILLOL MUKHERJEE.xlsx</t>
-  </si>
-  <si>
-    <t>Invalid Product exist</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1006,7 @@
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1098,12 +1095,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>189</v>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>
@@ -1147,13 +1141,6 @@
       <c r="P2" t="s">
         <v>59</v>
       </c>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
       <c r="X2" t="s">
         <v>60</v>
       </c>
@@ -1161,9 +1148,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>46</v>
@@ -1204,14 +1191,6 @@
       <c r="O3" t="s">
         <v>73</v>
       </c>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
       <c r="X3" t="s">
         <v>60</v>
       </c>
@@ -1219,9 +1198,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -1259,15 +1238,6 @@
       <c r="N4" t="s">
         <v>84</v>
       </c>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
       <c r="X4" t="s">
         <v>60</v>
       </c>
@@ -1275,9 +1245,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>86</v>
@@ -1321,13 +1291,6 @@
       <c r="P5" t="s">
         <v>57</v>
       </c>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
       <c r="X5" t="s">
         <v>60</v>
       </c>
@@ -1335,9 +1298,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5.0</v>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
@@ -1384,12 +1347,6 @@
       <c r="Q6" t="s">
         <v>109</v>
       </c>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
       <c r="X6" t="s">
         <v>60</v>
       </c>
@@ -1397,9 +1354,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6.0</v>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
@@ -1440,14 +1397,6 @@
       <c r="O7" t="s">
         <v>121</v>
       </c>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
       <c r="X7" t="s">
         <v>60</v>
       </c>
@@ -1455,9 +1404,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7.0</v>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
@@ -1498,14 +1447,6 @@
       <c r="O8" t="s">
         <v>72</v>
       </c>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
       <c r="X8" t="s">
         <v>60</v>
       </c>
@@ -1513,9 +1454,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8.0</v>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
@@ -1556,14 +1497,6 @@
       <c r="O9" t="s">
         <v>72</v>
       </c>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
       <c r="X9" t="s">
         <v>60</v>
       </c>
@@ -1571,9 +1504,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9.0</v>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
@@ -1614,14 +1547,6 @@
       <c r="O10" t="s">
         <v>154</v>
       </c>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
       <c r="X10" t="s">
         <v>60</v>
       </c>
@@ -1629,9 +1554,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10.0</v>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
@@ -1672,14 +1597,6 @@
       <c r="O11" t="s">
         <v>154</v>
       </c>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
       <c r="X11" t="s">
         <v>60</v>
       </c>
@@ -1687,9 +1604,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11.0</v>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>46</v>
@@ -1727,15 +1644,6 @@
       <c r="N12" t="s">
         <v>177</v>
       </c>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
       <c r="X12" t="s">
         <v>60</v>
       </c>
@@ -1743,9 +1651,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12.0</v>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
@@ -1786,14 +1694,6 @@
       <c r="O13" t="s">
         <v>121</v>
       </c>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
       <c r="X13" t="s">
         <v>60</v>
       </c>

--- a/MyFramework_1/TestData/TD/TD.xlsx
+++ b/MyFramework_1/TestData/TD/TD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagarajaK\eclipse-workspace\Git_Buckt1\MyFramework_1\TestData\TD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A105E6-C70D-42BF-9AD3-BADE5A80EE18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742F8106-7A97-4464-94B3-30A58EC7033B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="620" windowWidth="19180" windowHeight="10180" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="193">
   <si>
     <t>Date</t>
   </si>
@@ -217,7 +217,7 @@
     <t>Logitech Triathlon M720 - mouse - Bluetooth, 2.4 GHz</t>
   </si>
   <si>
-    <t>11/13/2020 15:41:25</t>
+    <t>11/14/2020 01:16:24</t>
   </si>
   <si>
     <t>05322B - Rahul Yadav.xlsx</t>
@@ -602,6 +602,18 @@
   </si>
   <si>
     <t>Office Supplies Requisiton_018594_HILLOL MUKHERJEE.xlsx</t>
+  </si>
+  <si>
+    <t>Total No records in input : 13</t>
+  </si>
+  <si>
+    <t>Wrong product added for Submission</t>
+  </si>
+  <si>
+    <t>Total number of Records processed : 12</t>
+  </si>
+  <si>
+    <t>Total number of Records submitted successfully: 0</t>
   </si>
 </sst>
 </file>
@@ -1003,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213F3DC-B182-452E-AF46-9D4704FF2230}">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1095,9 +1107,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>190</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>
@@ -1141,6 +1156,13 @@
       <c r="P2" t="s">
         <v>59</v>
       </c>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
       <c r="X2" t="s">
         <v>60</v>
       </c>
@@ -1148,9 +1170,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>190</v>
       </c>
       <c r="C3" t="s">
         <v>46</v>
@@ -1191,6 +1216,14 @@
       <c r="O3" t="s">
         <v>73</v>
       </c>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
       <c r="X3" t="s">
         <v>60</v>
       </c>
@@ -1198,9 +1231,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>190</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -1238,6 +1274,15 @@
       <c r="N4" t="s">
         <v>84</v>
       </c>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
       <c r="X4" t="s">
         <v>60</v>
       </c>
@@ -1245,9 +1290,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>190</v>
       </c>
       <c r="C5" t="s">
         <v>86</v>
@@ -1291,16 +1339,29 @@
       <c r="P5" t="s">
         <v>57</v>
       </c>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
       <c r="X5" t="s">
         <v>60</v>
       </c>
       <c r="Z5" t="s">
         <v>97</v>
       </c>
+      <c r="AF5" t="s">
+        <v>189</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>190</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
@@ -1347,16 +1408,28 @@
       <c r="Q6" t="s">
         <v>109</v>
       </c>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
       <c r="X6" t="s">
         <v>60</v>
       </c>
       <c r="Z6" t="s">
         <v>110</v>
       </c>
+      <c r="AF6" t="s">
+        <v>191</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>190</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
@@ -1397,16 +1470,30 @@
       <c r="O7" t="s">
         <v>121</v>
       </c>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
       <c r="X7" t="s">
         <v>60</v>
       </c>
       <c r="Z7" t="s">
         <v>122</v>
       </c>
+      <c r="AF7" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>190</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
@@ -1447,6 +1534,14 @@
       <c r="O8" t="s">
         <v>72</v>
       </c>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
       <c r="X8" t="s">
         <v>60</v>
       </c>
@@ -1454,9 +1549,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>190</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
@@ -1497,6 +1595,14 @@
       <c r="O9" t="s">
         <v>72</v>
       </c>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
       <c r="X9" t="s">
         <v>60</v>
       </c>
@@ -1504,9 +1610,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>190</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
@@ -1547,6 +1656,14 @@
       <c r="O10" t="s">
         <v>154</v>
       </c>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
       <c r="X10" t="s">
         <v>60</v>
       </c>
@@ -1554,9 +1671,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>190</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
@@ -1597,6 +1717,14 @@
       <c r="O11" t="s">
         <v>154</v>
       </c>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
       <c r="X11" t="s">
         <v>60</v>
       </c>
@@ -1604,9 +1732,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>190</v>
       </c>
       <c r="C12" t="s">
         <v>46</v>
@@ -1644,6 +1775,15 @@
       <c r="N12" t="s">
         <v>177</v>
       </c>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
       <c r="X12" t="s">
         <v>60</v>
       </c>
@@ -1651,9 +1791,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>190</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
@@ -1694,6 +1837,14 @@
       <c r="O13" t="s">
         <v>121</v>
       </c>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
       <c r="X13" t="s">
         <v>60</v>
       </c>

--- a/MyFramework_1/TestData/TD/TD.xlsx
+++ b/MyFramework_1/TestData/TD/TD.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagarajaK\eclipse-workspace\Git_Buckt1\MyFramework_1\TestData\TD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB4AACA-C4C5-4CE1-B783-E79719ED2997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245BA16F-6E29-49C6-91AE-1C6592866CB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10180" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
+    <workbookView xWindow="20" yWindow="380" windowWidth="19180" windowHeight="10180" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -26,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="415">
   <si>
     <t>Date</t>
   </si>
@@ -114,13 +114,1178 @@
     <t>ZIP</t>
   </si>
   <si>
-    <t>Total No records in input : 5</t>
+    <t>10/30/2021</t>
+  </si>
+  <si>
+    <t>00016C</t>
+  </si>
+  <si>
+    <t>Manju Bisht</t>
+  </si>
+  <si>
+    <t>Apt E 24, 158 CONCORD ROAD</t>
+  </si>
+  <si>
+    <t>Billerica</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>01821-4624</t>
+  </si>
+  <si>
+    <t>manju.bisht@in.ibm.com</t>
+  </si>
+  <si>
+    <t>978-495-0944</t>
+  </si>
+  <si>
+    <t>Vijayalakshmi Kuntimaddi</t>
+  </si>
+  <si>
+    <t>vkuntima@in.ibm.com</t>
+  </si>
+  <si>
+    <t>EVOLVE 65 WIRELESS BT DUAL EAR HEADSET W/STAND</t>
+  </si>
+  <si>
+    <t>11/20/2020 06:20:03</t>
+  </si>
+  <si>
+    <t>00016C Manju Bisht.xlsx</t>
+  </si>
+  <si>
+    <t>11/03/2020</t>
+  </si>
+  <si>
+    <t>00194H</t>
+  </si>
+  <si>
+    <t>Vishnuvardhana R Putluru</t>
+  </si>
+  <si>
+    <t>Apt# 13205, 1950 Eldridge Pkway</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>77077-3459</t>
+  </si>
+  <si>
+    <t>vputluru@in.ibm.com</t>
+  </si>
+  <si>
+    <t>281 687 2449</t>
+  </si>
+  <si>
+    <t>Manzoor Hasan</t>
+  </si>
+  <si>
+    <t>manhasan@in.ibm.com</t>
+  </si>
+  <si>
+    <t>Apple USB-C Charge Cable - USB-C cable - 2 m</t>
+  </si>
+  <si>
+    <t>00194H Vishnuvardhana R Putluru.xlsx</t>
+  </si>
+  <si>
+    <t>11/04/2020</t>
+  </si>
+  <si>
+    <t>006036</t>
+  </si>
+  <si>
+    <t>Asheesh K Pandey</t>
+  </si>
+  <si>
+    <t>230 Willard Street Unit 602</t>
+  </si>
+  <si>
+    <t>Quincy</t>
+  </si>
+  <si>
+    <t>02169-1560</t>
+  </si>
+  <si>
+    <t>ashepand@in.ibm.com</t>
+  </si>
+  <si>
+    <t>704.890.8850</t>
+  </si>
+  <si>
+    <t>Nibit Dutta</t>
+  </si>
+  <si>
+    <t>nibdutta@in.ibm.com</t>
+  </si>
+  <si>
+    <t>T24i-20(A20238FT0)23.8 inch Monitor-HDMI</t>
+  </si>
+  <si>
+    <t>006036 Asheesh Pandey.xlsx</t>
+  </si>
+  <si>
+    <t>02343R</t>
+  </si>
+  <si>
+    <t>Aditya Manna</t>
+  </si>
+  <si>
+    <t>8633 Aldershot Drive</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>23294-5114</t>
+  </si>
+  <si>
+    <t>adimanna@in.ibm.com</t>
+  </si>
+  <si>
+    <t>804-248-4198</t>
+  </si>
+  <si>
+    <t>Roshan Shah</t>
+  </si>
+  <si>
+    <t>Roshanshah@in.ibm.com</t>
+  </si>
+  <si>
+    <t>02343R Aditya Manna.xlsx</t>
+  </si>
+  <si>
+    <t>10/30/2020</t>
+  </si>
+  <si>
+    <t>02657M</t>
+  </si>
+  <si>
+    <t>Shripad Shirude</t>
+  </si>
+  <si>
+    <t>1513 Raspberry Ct</t>
+  </si>
+  <si>
+    <t>Edison</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>08817-1902</t>
+  </si>
+  <si>
+    <t>sshirude@in.ibm.com</t>
+  </si>
+  <si>
+    <t>201-238-1181</t>
+  </si>
+  <si>
+    <t>Nanda K Reddy</t>
+  </si>
+  <si>
+    <t>nanda.reddy@in.ibm.com</t>
+  </si>
+  <si>
+    <t>VOYAGER 5200 UC WIRELESS BLUETOOTH HEADSET UC</t>
+  </si>
+  <si>
+    <t>Logitech Triathlon M720 - mouse - Bluetooth, 2.4 GHz</t>
+  </si>
+  <si>
+    <t>02657M Shripad Shirude.xlsx</t>
+  </si>
+  <si>
+    <t>10/26/2020</t>
+  </si>
+  <si>
+    <t>02736R</t>
+  </si>
+  <si>
+    <t>Yuvraj Chaudhari</t>
+  </si>
+  <si>
+    <t>2651 County Road H2 , Apt 209</t>
+  </si>
+  <si>
+    <t>Saint Paul</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>55112-0008</t>
+  </si>
+  <si>
+    <t>yuvchaud@in.ibm.com</t>
+  </si>
+  <si>
+    <t>646 203 5419</t>
+  </si>
+  <si>
+    <t>Abhijit Sen</t>
+  </si>
+  <si>
+    <t>sen.abhijit@in.ibm.com</t>
+  </si>
+  <si>
+    <t>02736R Yuvraj Chaudhari.xlsx</t>
+  </si>
+  <si>
+    <t>03038L</t>
+  </si>
+  <si>
+    <t>Vinodhkumar K Pathayapura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APT E, 3302 Forest Edge CT </t>
+  </si>
+  <si>
+    <t>23294-5117</t>
+  </si>
+  <si>
+    <t>vpathaya@in.ibm.com</t>
+  </si>
+  <si>
+    <t>804 300 7167</t>
+  </si>
+  <si>
+    <t>Deepak D Sunke</t>
+  </si>
+  <si>
+    <t>deepak.sunke@in.ibm.com</t>
+  </si>
+  <si>
+    <t>03038L Vinodhkumar K Pathayapura.xlsx</t>
+  </si>
+  <si>
+    <t>03279K</t>
+  </si>
+  <si>
+    <t>Snigdha Pradip</t>
+  </si>
+  <si>
+    <t>513 Aspen Lane</t>
+  </si>
+  <si>
+    <t>Phillipsburg</t>
+  </si>
+  <si>
+    <t>08865-4384</t>
+  </si>
+  <si>
+    <t>snpradip@in.ibm.com</t>
+  </si>
+  <si>
+    <t>614 767 8970</t>
+  </si>
+  <si>
+    <t>Rakhahari Pramanik</t>
+  </si>
+  <si>
+    <t>Rakhahari.Pramanik@in.ibm.com</t>
+  </si>
+  <si>
+    <t>03279K Snigdha Pradip.xlsx</t>
+  </si>
+  <si>
+    <t>10/28/2020</t>
+  </si>
+  <si>
+    <t>03567O</t>
+  </si>
+  <si>
+    <t>Apnesh Kasliwal</t>
+  </si>
+  <si>
+    <t>787 Willow Creek drive</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>30328-0001</t>
+  </si>
+  <si>
+    <t>apnesh.kasliwal@in.ibm.com</t>
+  </si>
+  <si>
+    <t>404-259-1034</t>
+  </si>
+  <si>
+    <t>Sanjay Ingle</t>
+  </si>
+  <si>
+    <t>sanjay.ingle@in.ibm.com</t>
+  </si>
+  <si>
+    <t>03567O Apnesh Kasliwal.xlsx</t>
+  </si>
+  <si>
+    <t>11/02/2020</t>
+  </si>
+  <si>
+    <t>03626Q</t>
+  </si>
+  <si>
+    <t>Srikanth Vattikuti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apt #2, 200 Old River Rd </t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>02865-1136</t>
+  </si>
+  <si>
+    <t>srikanth.vattikuti@in.ibm.com</t>
+  </si>
+  <si>
+    <t>201 747 2783</t>
+  </si>
+  <si>
+    <t>Mahapatra Rabi</t>
+  </si>
+  <si>
+    <t>rabi.mahapatra@in.ibm.com</t>
+  </si>
+  <si>
+    <t>Lenovo Ultraslim Plus Wireless Keyboard &amp; Mouse</t>
+  </si>
+  <si>
+    <t>03626Q Srikanth Vattikuti.xlsx</t>
+  </si>
+  <si>
+    <t>03992H</t>
+  </si>
+  <si>
+    <t>Nithyanandan Periyasamy</t>
+  </si>
+  <si>
+    <t>Apt #D, 3302 forest Edge CT</t>
+  </si>
+  <si>
+    <t>23294-8750</t>
+  </si>
+  <si>
+    <t>niperiya@in.ibm.com</t>
+  </si>
+  <si>
+    <t>804-539-9442</t>
+  </si>
+  <si>
+    <t>roshanshah@in.ibm.com</t>
+  </si>
+  <si>
+    <t>03992H Nithyanandan Periyasamy.xlsx</t>
+  </si>
+  <si>
+    <t>04014L</t>
+  </si>
+  <si>
+    <t>PRIYANKA JHA</t>
+  </si>
+  <si>
+    <t>11378 FOXHAVEN DR</t>
+  </si>
+  <si>
+    <t>CHARLOTTE</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>28277-1491</t>
+  </si>
+  <si>
+    <t>priyjha2@in.ibm.com</t>
+  </si>
+  <si>
+    <t>5083081213</t>
+  </si>
+  <si>
+    <t>Anand Raghavendran</t>
+  </si>
+  <si>
+    <t>araghave@in.ibm.com</t>
+  </si>
+  <si>
+    <t>04014L PRIYANKA JHA.xlsx</t>
+  </si>
+  <si>
+    <t>11/01/2020</t>
+  </si>
+  <si>
+    <t>04629F</t>
+  </si>
+  <si>
+    <t>Anitha Bet</t>
+  </si>
+  <si>
+    <t>5457 Banfield Dr</t>
+  </si>
+  <si>
+    <t>Sacramento</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>95835-2166</t>
+  </si>
+  <si>
+    <t>anithbet@in.ibm.com</t>
+  </si>
+  <si>
+    <t>646 239 4619</t>
+  </si>
+  <si>
+    <t>Vinay Srivastava</t>
+  </si>
+  <si>
+    <t>vinaysri@in.ibm.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>04629F Anitha Bet.xlsx</t>
+  </si>
+  <si>
+    <t>04794K</t>
+  </si>
+  <si>
+    <t>Maneet Singh Jaggi</t>
+  </si>
+  <si>
+    <t>879 LEXINGTON ST # 8C</t>
+  </si>
+  <si>
+    <t>WALTHAM</t>
+  </si>
+  <si>
+    <t>02452-4851</t>
+  </si>
+  <si>
+    <t>maneet.jaggi@in.ibm.com</t>
+  </si>
+  <si>
+    <t>978 729 0760</t>
+  </si>
+  <si>
+    <t>EVOLVE 65 WIRELESS BLUETOOTH SINGLE EAR HEADSET</t>
+  </si>
+  <si>
+    <t>StarTech.com USB C to Gigabit Ethernet Adapter - Black - USB 3.1 to RJ45 LAN Net</t>
+  </si>
+  <si>
+    <t>04794K Maneet Jaggi.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 048801</t>
+  </si>
+  <si>
+    <t>Sachin Barde</t>
+  </si>
+  <si>
+    <t>APT # 2313, 107 ASHFORD DR</t>
+  </si>
+  <si>
+    <t>West Monroe</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>71291-7914</t>
+  </si>
+  <si>
+    <t>sacbarde@in.ibm.com</t>
+  </si>
+  <si>
+    <t>318-805-8086</t>
+  </si>
+  <si>
+    <t>Azeez A Shaik</t>
+  </si>
+  <si>
+    <t>azeeshai@in.ibm.com</t>
+  </si>
+  <si>
+    <t>048801 Sachin Barde.xlsx</t>
+  </si>
+  <si>
+    <t>051911</t>
+  </si>
+  <si>
+    <t>Venkata R Pyla</t>
+  </si>
+  <si>
+    <t>6124 Splading Forest Ct</t>
+  </si>
+  <si>
+    <t>30328-5780</t>
+  </si>
+  <si>
+    <t>venkataramana.pyla@in.ibm.com</t>
+  </si>
+  <si>
+    <t>470 265 9737</t>
+  </si>
+  <si>
+    <t>Sanjay Rohilla</t>
+  </si>
+  <si>
+    <t>srohilla@in.ibm.com</t>
+  </si>
+  <si>
+    <t>051911 Venkata R Pyla.xlsx</t>
+  </si>
+  <si>
+    <t>05429D</t>
+  </si>
+  <si>
+    <t>Nalin Chandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apt # 4A, 8 Koster Blvd </t>
+  </si>
+  <si>
+    <t>08837-4214</t>
+  </si>
+  <si>
+    <t>nalichan@in.ibm.com</t>
+  </si>
+  <si>
+    <t>732 397 9668</t>
+  </si>
+  <si>
+    <t>Yogin U Raval</t>
+  </si>
+  <si>
+    <t>yograval@in.ibm.com</t>
+  </si>
+  <si>
+    <t>EVOLVE 40 UC USB-A CORDED BINAURAL HEADSET</t>
+  </si>
+  <si>
+    <t>05429D Nalin Chandra.xlsx</t>
+  </si>
+  <si>
+    <t>11/05/2020</t>
+  </si>
+  <si>
+    <t>05782L</t>
+  </si>
+  <si>
+    <t>Rajesh Kumar Kanji</t>
+  </si>
+  <si>
+    <t>apt # 2023, 6900 preston rd</t>
+  </si>
+  <si>
+    <t>Plano,</t>
+  </si>
+  <si>
+    <t>75024-2533</t>
+  </si>
+  <si>
+    <t>rajeshkanji@in.ibm.com</t>
+  </si>
+  <si>
+    <t>214-301-9765</t>
+  </si>
+  <si>
+    <t>Magesh</t>
+  </si>
+  <si>
+    <t>Magesh.kumar@in.ibm.com</t>
+  </si>
+  <si>
+    <t>05782L Rajesh Kanji.xlsx</t>
+  </si>
+  <si>
+    <t>05784G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madhu Kiran Thandyasa </t>
+  </si>
+  <si>
+    <t>APT #Q2, 3599 East Normandy Park Drive</t>
+  </si>
+  <si>
+    <t>Medina</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>044256-8263</t>
+  </si>
+  <si>
+    <t>thakiran@in.ibm.com</t>
+  </si>
+  <si>
+    <t>4407328787</t>
+  </si>
+  <si>
+    <t>Siva R Bhimvarapu</t>
+  </si>
+  <si>
+    <t>Sbhimvar@in.ibm.com</t>
+  </si>
+  <si>
+    <t>05784G Madhu Kiran Thandyasa.xlsx</t>
+  </si>
+  <si>
+    <t>06327K</t>
+  </si>
+  <si>
+    <t>Ravi Shankar Sinha</t>
+  </si>
+  <si>
+    <t>1227 TAKEAWAY PL</t>
+  </si>
+  <si>
+    <t>MORRISVILLE</t>
+  </si>
+  <si>
+    <t>27560-7005</t>
+  </si>
+  <si>
+    <t>ravsinh2@in.ibm.com</t>
+  </si>
+  <si>
+    <t>919 561 9918</t>
+  </si>
+  <si>
+    <t>Rajesh Pukhraj</t>
+  </si>
+  <si>
+    <t>rpukhraj@in.ibm.com</t>
+  </si>
+  <si>
+    <t>06327K Ravi Shankar Sinha.xlsx</t>
+  </si>
+  <si>
+    <t>063424</t>
+  </si>
+  <si>
+    <t>Deepak Kumar Rout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APT # 1702, 6611 W 140TH ST </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVERLAND PARK </t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>66223-3743</t>
+  </si>
+  <si>
+    <t>deepakrout@in.ibm.com</t>
+  </si>
+  <si>
+    <t>913-957-9686</t>
+  </si>
+  <si>
+    <t>Kiran K Padmakumar</t>
+  </si>
+  <si>
+    <t>kirankrishnan@in.ibm.com</t>
+  </si>
+  <si>
+    <t>063424 Deepak Kumar Rout.xlsx</t>
+  </si>
+  <si>
+    <t>064410</t>
+  </si>
+  <si>
+    <t>Gaurav Saxena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219 Congress Street, 1st Floor </t>
+  </si>
+  <si>
+    <t>Jersey City</t>
+  </si>
+  <si>
+    <t>07307-4486</t>
+  </si>
+  <si>
+    <t>gsaxena6@in.ibm.com</t>
+  </si>
+  <si>
+    <t>551-358-1742</t>
+  </si>
+  <si>
+    <t>Pradeep Jn</t>
+  </si>
+  <si>
+    <t>pjothees@in.ibm.com</t>
+  </si>
+  <si>
+    <t>064410 Gaurav Saxena.xlsx</t>
+  </si>
+  <si>
+    <t>06761M</t>
+  </si>
+  <si>
+    <t>Syed Yaseen</t>
+  </si>
+  <si>
+    <t>1047 Southern Artery</t>
+  </si>
+  <si>
+    <t>02169-8314</t>
+  </si>
+  <si>
+    <t>Syed.Yaseen@in.ibm.com</t>
+  </si>
+  <si>
+    <t>7816008640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhananjay U Ingale </t>
+  </si>
+  <si>
+    <t>dhingale@in.bim.com</t>
+  </si>
+  <si>
+    <t>Apple Magic Keyboard - keyboard - US</t>
+  </si>
+  <si>
+    <t>06761M Syed Yaseen.xlsx</t>
+  </si>
+  <si>
+    <t>06771F</t>
+  </si>
+  <si>
+    <t>Raghabendra Das</t>
+  </si>
+  <si>
+    <t>308 CINDER RD</t>
+  </si>
+  <si>
+    <t>08820-3355</t>
+  </si>
+  <si>
+    <t>raghabendra_das@in.ibm.com</t>
+  </si>
+  <si>
+    <t>848 259 6790</t>
+  </si>
+  <si>
+    <t>Pradeep J</t>
+  </si>
+  <si>
+    <t>06771F Raghabendra Das.xlsx</t>
+  </si>
+  <si>
+    <t>068023</t>
+  </si>
+  <si>
+    <t>Vijaya Krishna Pala</t>
+  </si>
+  <si>
+    <t>204 Hillside Mnr</t>
+  </si>
+  <si>
+    <t>Scranton</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>18505-2372</t>
+  </si>
+  <si>
+    <t>vijapala@in.ibm.com</t>
+  </si>
+  <si>
+    <t>570 677 6641</t>
+  </si>
+  <si>
+    <t>Paparao Putta</t>
+  </si>
+  <si>
+    <t>paparao.putta@in.ibm.com</t>
+  </si>
+  <si>
+    <t>068023 Vijaya Krishna Pala.xlsx</t>
+  </si>
+  <si>
+    <t>068478</t>
+  </si>
+  <si>
+    <t>ROSHAN SHAH</t>
+  </si>
+  <si>
+    <t>APT #15K, 3220 COPPERMILL TRACE</t>
+  </si>
+  <si>
+    <t>HENRICO</t>
+  </si>
+  <si>
+    <t>23294-4740</t>
+  </si>
+  <si>
+    <t>(804) 267-9152</t>
+  </si>
+  <si>
+    <t>Pinaki Chakraborty</t>
+  </si>
+  <si>
+    <t>pinaki.chakraborty@in.ibm.com</t>
+  </si>
+  <si>
+    <t>Apple Magic Mouse 2 - mouse - Bluetooth</t>
+  </si>
+  <si>
+    <t>StarTech.com Portable USB C Multiport Video Adapter - 4k HDMI or VGA, USB 3.0</t>
+  </si>
+  <si>
+    <t>068478 Roshan Shah.xlsx</t>
+  </si>
+  <si>
+    <t>07020C</t>
+  </si>
+  <si>
+    <t>Deepa Banthia</t>
+  </si>
+  <si>
+    <t>APT #1083, 19645 N 31ST AVENUE</t>
+  </si>
+  <si>
+    <t>PHOENIX</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>85027-3989</t>
+  </si>
+  <si>
+    <t>dbanthia@in.ibm.com</t>
+  </si>
+  <si>
+    <t>602 632 1587</t>
+  </si>
+  <si>
+    <t>Nitin Mathur</t>
+  </si>
+  <si>
+    <t>nitin.mathur@in.ibm.com</t>
+  </si>
+  <si>
+    <t>07020C Deepa Banthia.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 094739</t>
+  </si>
+  <si>
+    <t>Naresh Kumar Avasthi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311 Aventura DR </t>
+  </si>
+  <si>
+    <t>Mount juliet</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>37122-6421</t>
+  </si>
+  <si>
+    <t>naavasth@in.ibm.com</t>
+  </si>
+  <si>
+    <t>813-585-9793</t>
+  </si>
+  <si>
+    <t>Vinod Mariam</t>
+  </si>
+  <si>
+    <t>vimariam@in.ibm.com</t>
+  </si>
+  <si>
+    <t>094739 Naresh Kumar Avasthi.xlsx</t>
+  </si>
+  <si>
+    <t>097370</t>
+  </si>
+  <si>
+    <t>Jayati Kesharwani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apt #2402, 14025 N Eastern Ave </t>
+  </si>
+  <si>
+    <t>Edmond</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>73013-3506</t>
+  </si>
+  <si>
+    <t>jkesharw@in.ibm.com</t>
+  </si>
+  <si>
+    <t>469 531 9280</t>
+  </si>
+  <si>
+    <t>Ramesh G Nair</t>
+  </si>
+  <si>
+    <t>ramenair@in.ibm.com</t>
+  </si>
+  <si>
+    <t>097370 Jayati Kesharwani.xlsx</t>
+  </si>
+  <si>
+    <t>125909</t>
+  </si>
+  <si>
+    <t>Ashis Pal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apt #D7, 366 Mount Prospect Ave </t>
+  </si>
+  <si>
+    <t>Newark</t>
+  </si>
+  <si>
+    <t>07104-2187</t>
+  </si>
+  <si>
+    <t>ashispal@in.ibm.com</t>
+  </si>
+  <si>
+    <t>3179876292</t>
+  </si>
+  <si>
+    <t>Venkat Siva Prasada Reddy Bhuma</t>
+  </si>
+  <si>
+    <t>bvspreddy@in.ibm.com</t>
+  </si>
+  <si>
+    <t>125909 Ashis Pal.xlsx</t>
+  </si>
+  <si>
+    <t>164317</t>
+  </si>
+  <si>
+    <t>Poovendran Alagarsundaram</t>
+  </si>
+  <si>
+    <t>Apt #169, 2431 River Plaza DR</t>
+  </si>
+  <si>
+    <t>95833-3269</t>
+  </si>
+  <si>
+    <t>apoovendran@in.ibm.com</t>
+  </si>
+  <si>
+    <t>916 717 0691</t>
+  </si>
+  <si>
+    <t>Krishna Menon</t>
+  </si>
+  <si>
+    <t>krismenon@in.ibm.com</t>
+  </si>
+  <si>
+    <t>164317 Poovendran Alagarsundaram.xlsx</t>
+  </si>
+  <si>
+    <t>286073</t>
+  </si>
+  <si>
+    <t>Parveenbanu Annigeri</t>
+  </si>
+  <si>
+    <t>Apt #610, 11418 Floyd Drive</t>
+  </si>
+  <si>
+    <t>Overland Park</t>
+  </si>
+  <si>
+    <t>66210-2688</t>
+  </si>
+  <si>
+    <t>panniger@in.ibm.com</t>
+  </si>
+  <si>
+    <t>913 749 2435</t>
+  </si>
+  <si>
+    <t>286073 Parveenbanu Annigeri.xlsx</t>
+  </si>
+  <si>
+    <t>10/31/2020</t>
+  </si>
+  <si>
+    <t>766819</t>
+  </si>
+  <si>
+    <t>Prasanna Kapu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5169 Sawmill Road </t>
+  </si>
+  <si>
+    <t>DUBLIN</t>
+  </si>
+  <si>
+    <t>43017-1596</t>
+  </si>
+  <si>
+    <t>praskapu@in.ibm.com</t>
+  </si>
+  <si>
+    <t>614 632 6154</t>
+  </si>
+  <si>
+    <t>Sanjay Sarup</t>
+  </si>
+  <si>
+    <t>sanjay.sarup@in.ibm.com</t>
+  </si>
+  <si>
+    <t>766819 Prasanna Kapu.xlsx</t>
+  </si>
+  <si>
+    <t>10/29/2020</t>
+  </si>
+  <si>
+    <t>911490</t>
+  </si>
+  <si>
+    <t>Raja Naik</t>
+  </si>
+  <si>
+    <t>15325 NE 14th ST</t>
+  </si>
+  <si>
+    <t>Vancouver</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>98684-7914</t>
+  </si>
+  <si>
+    <t>nraja@in.ibm.com</t>
+  </si>
+  <si>
+    <t>510-458-6670</t>
+  </si>
+  <si>
+    <t>Tirthankar Ghosh</t>
+  </si>
+  <si>
+    <t>t.ghosh@in.ibm.com</t>
+  </si>
+  <si>
+    <t>911490 Raja Naik.xlsx</t>
+  </si>
+  <si>
+    <t>992649</t>
+  </si>
+  <si>
+    <t>Suresh Manoharan</t>
+  </si>
+  <si>
+    <t>Apt #14, 20 Skytop Gdns</t>
+  </si>
+  <si>
+    <t>Parlin</t>
+  </si>
+  <si>
+    <t>08859-2137</t>
+  </si>
+  <si>
+    <t>sureshm1@in.ibm.com</t>
+  </si>
+  <si>
+    <t>732 401 7293</t>
+  </si>
+  <si>
+    <t>992649 Suresh Manoharan.xlsx</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR467978</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR467984</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR467988</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR467990</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR467998</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR468004</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR468008</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR468012</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR468017</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR468026</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR468031</t>
+  </si>
+  <si>
+    <t>TD Nov 19 35 set _new Batch 3 1st run</t>
+  </si>
+  <si>
+    <t>Run Details</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,10 +1350,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,18 +1669,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213F3DC-B182-452E-AF46-9D4704FF2230}">
-  <dimension ref="A1:AF1"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="93.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="2.81640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="71.1796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.90625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.453125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="35.36328125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.1796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.453125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="29.81640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.08984375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="47.7265625" collapsed="true"/>
+    <col min="15" max="16" bestFit="true" customWidth="true" width="69.0" collapsed="true"/>
+    <col min="17" max="22" bestFit="true" customWidth="true" width="5.81640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.81640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="18.1796875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="5.7265625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="35.7265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -593,8 +1778,1773 @@
       <c r="Z1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" t="s">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" t="s">
+        <v>100</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="X7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" t="s">
+        <v>109</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" t="s">
+        <v>51</v>
+      </c>
+      <c r="X8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>408</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N9" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" t="s">
+        <v>51</v>
+      </c>
+      <c r="X9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>409</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" t="s">
+        <v>131</v>
+      </c>
+      <c r="N10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" t="s">
+        <v>51</v>
+      </c>
+      <c r="X10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>410</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" t="s">
+        <v>139</v>
+      </c>
+      <c r="J11" t="s">
+        <v>140</v>
+      </c>
+      <c r="K11" t="s">
+        <v>141</v>
+      </c>
+      <c r="L11" t="s">
+        <v>142</v>
+      </c>
+      <c r="M11" t="s">
+        <v>143</v>
+      </c>
+      <c r="N11" t="s">
+        <v>144</v>
+      </c>
+      <c r="O11" t="s">
+        <v>87</v>
+      </c>
+      <c r="X11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" t="s">
+        <v>149</v>
+      </c>
+      <c r="J12" t="s">
+        <v>150</v>
+      </c>
+      <c r="K12" t="s">
+        <v>151</v>
+      </c>
+      <c r="L12" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" t="s">
+        <v>152</v>
+      </c>
+      <c r="N12" t="s">
+        <v>87</v>
+      </c>
+      <c r="O12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>411</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J13" t="s">
+        <v>160</v>
+      </c>
+      <c r="K13" t="s">
+        <v>161</v>
+      </c>
+      <c r="L13" t="s">
+        <v>162</v>
+      </c>
+      <c r="M13" t="s">
+        <v>163</v>
+      </c>
+      <c r="N13" t="s">
+        <v>37</v>
+      </c>
+      <c r="X13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I14" t="s">
+        <v>171</v>
+      </c>
+      <c r="J14" t="s">
+        <v>172</v>
+      </c>
+      <c r="K14" t="s">
+        <v>173</v>
+      </c>
+      <c r="L14" t="s">
+        <v>174</v>
+      </c>
+      <c r="M14" t="s">
+        <v>175</v>
+      </c>
+      <c r="N14" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14" t="s">
+        <v>176</v>
+      </c>
+      <c r="X14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>412</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s">
+        <v>182</v>
+      </c>
+      <c r="J15" t="s">
+        <v>183</v>
+      </c>
+      <c r="K15" t="s">
+        <v>184</v>
+      </c>
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" t="s">
+        <v>185</v>
+      </c>
+      <c r="O15" t="s">
+        <v>186</v>
+      </c>
+      <c r="X15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H16" t="s">
+        <v>192</v>
+      </c>
+      <c r="I16" t="s">
+        <v>193</v>
+      </c>
+      <c r="J16" t="s">
+        <v>194</v>
+      </c>
+      <c r="K16" t="s">
+        <v>195</v>
+      </c>
+      <c r="L16" t="s">
+        <v>196</v>
+      </c>
+      <c r="M16" t="s">
+        <v>197</v>
+      </c>
+      <c r="N16" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" t="s">
+        <v>51</v>
+      </c>
+      <c r="X16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" t="s">
+        <v>202</v>
+      </c>
+      <c r="J17" t="s">
+        <v>203</v>
+      </c>
+      <c r="K17" t="s">
+        <v>204</v>
+      </c>
+      <c r="L17" t="s">
+        <v>205</v>
+      </c>
+      <c r="M17" t="s">
+        <v>206</v>
+      </c>
+      <c r="N17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O17" t="s">
+        <v>87</v>
+      </c>
+      <c r="X17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" t="s">
+        <v>209</v>
+      </c>
+      <c r="F18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" t="s">
+        <v>211</v>
+      </c>
+      <c r="J18" t="s">
+        <v>212</v>
+      </c>
+      <c r="K18" t="s">
+        <v>213</v>
+      </c>
+      <c r="L18" t="s">
+        <v>214</v>
+      </c>
+      <c r="M18" t="s">
+        <v>215</v>
+      </c>
+      <c r="N18" t="s">
+        <v>216</v>
+      </c>
+      <c r="O18" t="s">
+        <v>87</v>
+      </c>
+      <c r="X18" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19" t="s">
+        <v>219</v>
+      </c>
+      <c r="E19" t="s">
+        <v>220</v>
+      </c>
+      <c r="F19" t="s">
+        <v>221</v>
+      </c>
+      <c r="G19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s">
+        <v>223</v>
+      </c>
+      <c r="J19" t="s">
+        <v>224</v>
+      </c>
+      <c r="K19" t="s">
+        <v>225</v>
+      </c>
+      <c r="L19" t="s">
+        <v>226</v>
+      </c>
+      <c r="M19" t="s">
+        <v>227</v>
+      </c>
+      <c r="N19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" t="s">
+        <v>51</v>
+      </c>
+      <c r="X19" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" t="s">
+        <v>229</v>
+      </c>
+      <c r="E20" t="s">
+        <v>230</v>
+      </c>
+      <c r="F20" t="s">
+        <v>231</v>
+      </c>
+      <c r="G20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H20" t="s">
+        <v>233</v>
+      </c>
+      <c r="I20" t="s">
+        <v>234</v>
+      </c>
+      <c r="J20" t="s">
+        <v>235</v>
+      </c>
+      <c r="K20" t="s">
+        <v>236</v>
+      </c>
+      <c r="L20" t="s">
+        <v>237</v>
+      </c>
+      <c r="M20" t="s">
+        <v>238</v>
+      </c>
+      <c r="N20" t="s">
+        <v>87</v>
+      </c>
+      <c r="O20" t="s">
+        <v>144</v>
+      </c>
+      <c r="X20" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" t="s">
+        <v>240</v>
+      </c>
+      <c r="E21" t="s">
+        <v>241</v>
+      </c>
+      <c r="F21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G21" t="s">
+        <v>243</v>
+      </c>
+      <c r="H21" t="s">
+        <v>158</v>
+      </c>
+      <c r="I21" t="s">
+        <v>244</v>
+      </c>
+      <c r="J21" t="s">
+        <v>245</v>
+      </c>
+      <c r="K21" t="s">
+        <v>246</v>
+      </c>
+      <c r="L21" t="s">
+        <v>247</v>
+      </c>
+      <c r="M21" t="s">
+        <v>248</v>
+      </c>
+      <c r="N21" t="s">
+        <v>63</v>
+      </c>
+      <c r="X21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" t="s">
+        <v>250</v>
+      </c>
+      <c r="E22" t="s">
+        <v>251</v>
+      </c>
+      <c r="F22" t="s">
+        <v>252</v>
+      </c>
+      <c r="G22" t="s">
+        <v>253</v>
+      </c>
+      <c r="H22" t="s">
+        <v>254</v>
+      </c>
+      <c r="I22" t="s">
+        <v>255</v>
+      </c>
+      <c r="J22" t="s">
+        <v>256</v>
+      </c>
+      <c r="K22" t="s">
+        <v>257</v>
+      </c>
+      <c r="L22" t="s">
+        <v>258</v>
+      </c>
+      <c r="M22" t="s">
+        <v>259</v>
+      </c>
+      <c r="N22" t="s">
+        <v>87</v>
+      </c>
+      <c r="O22" t="s">
+        <v>144</v>
+      </c>
+      <c r="X22" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" t="s">
+        <v>261</v>
+      </c>
+      <c r="E23" t="s">
+        <v>262</v>
+      </c>
+      <c r="F23" t="s">
+        <v>263</v>
+      </c>
+      <c r="G23" t="s">
+        <v>264</v>
+      </c>
+      <c r="H23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" t="s">
+        <v>265</v>
+      </c>
+      <c r="J23" t="s">
+        <v>266</v>
+      </c>
+      <c r="K23" t="s">
+        <v>267</v>
+      </c>
+      <c r="L23" t="s">
+        <v>268</v>
+      </c>
+      <c r="M23" t="s">
+        <v>269</v>
+      </c>
+      <c r="N23" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" t="s">
+        <v>186</v>
+      </c>
+      <c r="X23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>271</v>
+      </c>
+      <c r="E24" t="s">
+        <v>272</v>
+      </c>
+      <c r="F24" t="s">
+        <v>273</v>
+      </c>
+      <c r="G24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" t="s">
+        <v>274</v>
+      </c>
+      <c r="J24" t="s">
+        <v>275</v>
+      </c>
+      <c r="K24" t="s">
+        <v>276</v>
+      </c>
+      <c r="L24" t="s">
+        <v>277</v>
+      </c>
+      <c r="M24" t="s">
+        <v>278</v>
+      </c>
+      <c r="N24" t="s">
+        <v>279</v>
+      </c>
+      <c r="O24" t="s">
+        <v>88</v>
+      </c>
+      <c r="X24" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>281</v>
+      </c>
+      <c r="E25" t="s">
+        <v>282</v>
+      </c>
+      <c r="F25" t="s">
+        <v>283</v>
+      </c>
+      <c r="G25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" t="s">
+        <v>284</v>
+      </c>
+      <c r="J25" t="s">
+        <v>285</v>
+      </c>
+      <c r="K25" t="s">
+        <v>286</v>
+      </c>
+      <c r="L25" t="s">
+        <v>287</v>
+      </c>
+      <c r="M25" t="s">
+        <v>269</v>
+      </c>
+      <c r="N25" t="s">
+        <v>87</v>
+      </c>
+      <c r="X25" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" t="s">
+        <v>289</v>
+      </c>
+      <c r="E26" t="s">
+        <v>290</v>
+      </c>
+      <c r="F26" t="s">
+        <v>291</v>
+      </c>
+      <c r="G26" t="s">
+        <v>292</v>
+      </c>
+      <c r="H26" t="s">
+        <v>293</v>
+      </c>
+      <c r="I26" t="s">
+        <v>294</v>
+      </c>
+      <c r="J26" t="s">
+        <v>295</v>
+      </c>
+      <c r="K26" t="s">
+        <v>296</v>
+      </c>
+      <c r="L26" t="s">
+        <v>297</v>
+      </c>
+      <c r="M26" t="s">
+        <v>298</v>
+      </c>
+      <c r="N26" t="s">
+        <v>37</v>
+      </c>
+      <c r="X26" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
+        <v>300</v>
+      </c>
+      <c r="E27" t="s">
+        <v>301</v>
+      </c>
+      <c r="F27" t="s">
+        <v>302</v>
+      </c>
+      <c r="G27" t="s">
+        <v>303</v>
+      </c>
+      <c r="H27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" t="s">
+        <v>304</v>
+      </c>
+      <c r="J27" t="s">
+        <v>152</v>
+      </c>
+      <c r="K27" t="s">
+        <v>305</v>
+      </c>
+      <c r="L27" t="s">
+        <v>306</v>
+      </c>
+      <c r="M27" t="s">
+        <v>307</v>
+      </c>
+      <c r="N27" t="s">
+        <v>308</v>
+      </c>
+      <c r="O27" t="s">
+        <v>51</v>
+      </c>
+      <c r="P27" t="s">
+        <v>309</v>
+      </c>
+      <c r="X27" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>311</v>
+      </c>
+      <c r="E28" t="s">
+        <v>312</v>
+      </c>
+      <c r="F28" t="s">
+        <v>313</v>
+      </c>
+      <c r="G28" t="s">
+        <v>314</v>
+      </c>
+      <c r="H28" t="s">
+        <v>315</v>
+      </c>
+      <c r="I28" t="s">
+        <v>316</v>
+      </c>
+      <c r="J28" t="s">
+        <v>317</v>
+      </c>
+      <c r="K28" t="s">
+        <v>318</v>
+      </c>
+      <c r="L28" t="s">
+        <v>319</v>
+      </c>
+      <c r="M28" t="s">
+        <v>320</v>
+      </c>
+      <c r="N28" t="s">
+        <v>37</v>
+      </c>
+      <c r="O28" t="s">
+        <v>51</v>
+      </c>
+      <c r="X28" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
+        <v>322</v>
+      </c>
+      <c r="E29" t="s">
+        <v>323</v>
+      </c>
+      <c r="F29" t="s">
+        <v>324</v>
+      </c>
+      <c r="G29" t="s">
+        <v>325</v>
+      </c>
+      <c r="H29" t="s">
+        <v>326</v>
+      </c>
+      <c r="I29" t="s">
+        <v>327</v>
+      </c>
+      <c r="J29" t="s">
+        <v>328</v>
+      </c>
+      <c r="K29" t="s">
+        <v>329</v>
+      </c>
+      <c r="L29" t="s">
+        <v>330</v>
+      </c>
+      <c r="M29" t="s">
+        <v>331</v>
+      </c>
+      <c r="N29" t="s">
+        <v>87</v>
+      </c>
+      <c r="O29" t="s">
+        <v>144</v>
+      </c>
+      <c r="X29" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" t="s">
+        <v>333</v>
+      </c>
+      <c r="E30" t="s">
+        <v>334</v>
+      </c>
+      <c r="F30" t="s">
+        <v>335</v>
+      </c>
+      <c r="G30" t="s">
+        <v>336</v>
+      </c>
+      <c r="H30" t="s">
+        <v>337</v>
+      </c>
+      <c r="I30" t="s">
+        <v>338</v>
+      </c>
+      <c r="J30" t="s">
+        <v>339</v>
+      </c>
+      <c r="K30" t="s">
+        <v>340</v>
+      </c>
+      <c r="L30" t="s">
+        <v>341</v>
+      </c>
+      <c r="M30" t="s">
+        <v>342</v>
+      </c>
+      <c r="N30" t="s">
+        <v>185</v>
+      </c>
+      <c r="X30" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" t="s">
+        <v>344</v>
+      </c>
+      <c r="E31" t="s">
+        <v>345</v>
+      </c>
+      <c r="F31" t="s">
+        <v>346</v>
+      </c>
+      <c r="G31" t="s">
+        <v>347</v>
+      </c>
+      <c r="H31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" t="s">
+        <v>348</v>
+      </c>
+      <c r="J31" t="s">
+        <v>349</v>
+      </c>
+      <c r="K31" t="s">
+        <v>350</v>
+      </c>
+      <c r="L31" t="s">
+        <v>351</v>
+      </c>
+      <c r="M31" t="s">
+        <v>352</v>
+      </c>
+      <c r="N31" t="s">
+        <v>144</v>
+      </c>
+      <c r="O31" t="s">
+        <v>88</v>
+      </c>
+      <c r="P31" t="s">
+        <v>216</v>
+      </c>
+      <c r="X31" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" t="s">
+        <v>354</v>
+      </c>
+      <c r="E32" t="s">
+        <v>355</v>
+      </c>
+      <c r="F32" t="s">
+        <v>356</v>
+      </c>
+      <c r="G32" t="s">
+        <v>169</v>
+      </c>
+      <c r="H32" t="s">
+        <v>170</v>
+      </c>
+      <c r="I32" t="s">
+        <v>357</v>
+      </c>
+      <c r="J32" t="s">
+        <v>358</v>
+      </c>
+      <c r="K32" t="s">
+        <v>359</v>
+      </c>
+      <c r="L32" t="s">
+        <v>360</v>
+      </c>
+      <c r="M32" t="s">
+        <v>361</v>
+      </c>
+      <c r="N32" t="s">
+        <v>87</v>
+      </c>
+      <c r="O32" t="s">
+        <v>88</v>
+      </c>
+      <c r="X32" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" t="s">
+        <v>363</v>
+      </c>
+      <c r="E33" t="s">
+        <v>364</v>
+      </c>
+      <c r="F33" t="s">
+        <v>365</v>
+      </c>
+      <c r="G33" t="s">
+        <v>366</v>
+      </c>
+      <c r="H33" t="s">
+        <v>254</v>
+      </c>
+      <c r="I33" t="s">
+        <v>367</v>
+      </c>
+      <c r="J33" t="s">
+        <v>368</v>
+      </c>
+      <c r="K33" t="s">
+        <v>369</v>
+      </c>
+      <c r="L33" t="s">
+        <v>258</v>
+      </c>
+      <c r="M33" t="s">
+        <v>259</v>
+      </c>
+      <c r="N33" t="s">
+        <v>63</v>
+      </c>
+      <c r="O33" t="s">
+        <v>51</v>
+      </c>
+      <c r="X33" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>371</v>
+      </c>
+      <c r="D34" t="s">
+        <v>372</v>
+      </c>
+      <c r="E34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F34" t="s">
+        <v>374</v>
+      </c>
+      <c r="G34" t="s">
+        <v>375</v>
+      </c>
+      <c r="H34" t="s">
+        <v>233</v>
+      </c>
+      <c r="I34" t="s">
+        <v>376</v>
+      </c>
+      <c r="J34" t="s">
+        <v>377</v>
+      </c>
+      <c r="K34" t="s">
+        <v>378</v>
+      </c>
+      <c r="L34" t="s">
+        <v>379</v>
+      </c>
+      <c r="M34" t="s">
+        <v>380</v>
+      </c>
+      <c r="N34" t="s">
+        <v>37</v>
+      </c>
+      <c r="X34" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>382</v>
+      </c>
+      <c r="D35" t="s">
+        <v>383</v>
+      </c>
+      <c r="E35" t="s">
+        <v>384</v>
+      </c>
+      <c r="F35" t="s">
+        <v>385</v>
+      </c>
+      <c r="G35" t="s">
+        <v>386</v>
+      </c>
+      <c r="H35" t="s">
+        <v>387</v>
+      </c>
+      <c r="I35" t="s">
+        <v>388</v>
+      </c>
+      <c r="J35" t="s">
+        <v>389</v>
+      </c>
+      <c r="K35" t="s">
+        <v>390</v>
+      </c>
+      <c r="L35" t="s">
+        <v>391</v>
+      </c>
+      <c r="M35" t="s">
+        <v>392</v>
+      </c>
+      <c r="N35" t="s">
+        <v>63</v>
+      </c>
+      <c r="O35" t="s">
+        <v>51</v>
+      </c>
+      <c r="X35" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>394</v>
+      </c>
+      <c r="E36" t="s">
+        <v>395</v>
+      </c>
+      <c r="F36" t="s">
+        <v>396</v>
+      </c>
+      <c r="G36" t="s">
+        <v>397</v>
+      </c>
+      <c r="H36" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" t="s">
+        <v>398</v>
+      </c>
+      <c r="J36" t="s">
+        <v>399</v>
+      </c>
+      <c r="K36" t="s">
+        <v>400</v>
+      </c>
+      <c r="L36" t="s">
+        <v>78</v>
+      </c>
+      <c r="M36" t="s">
+        <v>83</v>
+      </c>
+      <c r="N36" t="s">
+        <v>87</v>
+      </c>
+      <c r="O36" t="s">
+        <v>216</v>
+      </c>
+      <c r="X36" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -602,4 +3552,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FEAE6E-9C07-49A8-AA42-2232F6C49505}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>44155</v>
+      </c>
+      <c r="B2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MyFramework_1/TestData/TD/TD.xlsx
+++ b/MyFramework_1/TestData/TD/TD.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="459">
   <si>
     <t>Date</t>
   </si>
@@ -1279,6 +1279,138 @@
   </si>
   <si>
     <t>Run Details</t>
+  </si>
+  <si>
+    <t>11/12/2020</t>
+  </si>
+  <si>
+    <t>01205Q</t>
+  </si>
+  <si>
+    <t>Rajasekaran Periasamy</t>
+  </si>
+  <si>
+    <t>Apt # 204, 144 Galway Drive</t>
+  </si>
+  <si>
+    <t>Mooresville</t>
+  </si>
+  <si>
+    <t>28117-5558</t>
+  </si>
+  <si>
+    <t>raperias@in.ibm.com</t>
+  </si>
+  <si>
+    <t>4693860871</t>
+  </si>
+  <si>
+    <t>Vamsi M Thirumala</t>
+  </si>
+  <si>
+    <t>Vamsi M Thirumala1/India/IBM</t>
+  </si>
+  <si>
+    <t>11/21/2020 17:15:24</t>
+  </si>
+  <si>
+    <t>Branch - Office Supplies Vamsi  v2.0-4.xlsx</t>
+  </si>
+  <si>
+    <t>073574</t>
+  </si>
+  <si>
+    <t>Farid Ahmad</t>
+  </si>
+  <si>
+    <t>2106 Lakeview Drive</t>
+  </si>
+  <si>
+    <t>08859-2252</t>
+  </si>
+  <si>
+    <t>fariahma@in.ibm.com</t>
+  </si>
+  <si>
+    <t>732 397 3266</t>
+  </si>
+  <si>
+    <t>Phani Kiran</t>
+  </si>
+  <si>
+    <t>phanikiran@in.ibm.com</t>
+  </si>
+  <si>
+    <t>Farid Ahmad - Emp Id - 073574 -  11 12 2020.xlsx</t>
+  </si>
+  <si>
+    <t>018594</t>
+  </si>
+  <si>
+    <t>HILLOL MUKHERJEE</t>
+  </si>
+  <si>
+    <t>2330 Pleasant Hill Rd. Apt 20</t>
+  </si>
+  <si>
+    <t>Pleasant Hill</t>
+  </si>
+  <si>
+    <t>94523-3160</t>
+  </si>
+  <si>
+    <t>hilmukhe@in.ibm.com</t>
+  </si>
+  <si>
+    <t>925-914-7904</t>
+  </si>
+  <si>
+    <t>JOYJIT BOSE</t>
+  </si>
+  <si>
+    <t>joyjbose@in.ibm.com</t>
+  </si>
+  <si>
+    <t>StarTech.com USB 3.0 to Gigabit Ethernet Adapter - 10/100/1000 NIC Network Adapt</t>
+  </si>
+  <si>
+    <t>Office Supplies Requisiton_018594_HILLOL MUKHERJEE.xlsx</t>
+  </si>
+  <si>
+    <t>11/21/2020 17:16:20</t>
+  </si>
+  <si>
+    <t>11/21/2020 17:46:07</t>
+  </si>
+  <si>
+    <t>11/21/2020 17:47:04</t>
+  </si>
+  <si>
+    <t>Failed - Submission. Please check if an entry is submitted</t>
+  </si>
+  <si>
+    <t>11/21/2020 17:51:43</t>
+  </si>
+  <si>
+    <t>11/21/2020 17:57:58</t>
+  </si>
+  <si>
+    <t>11/21/2020 17:58:55</t>
+  </si>
+  <si>
+    <t>11/21/2020 18:03:52</t>
+  </si>
+  <si>
+    <t>11/21/2020 18:10:12</t>
+  </si>
+  <si>
+    <t>11/21/2020 18:18:28</t>
+  </si>
+  <si>
+    <t>11/21/2020 18:26:42</t>
+  </si>
+  <si>
+    <t>11/21/2020 19:34:01</t>
   </si>
 </sst>
 </file>
@@ -1669,7 +1801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213F3DC-B182-452E-AF46-9D4704FF2230}">
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:Z72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -1783,6 +1915,9 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>450</v>
+      </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
@@ -2307,6 +2442,9 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>450</v>
+      </c>
       <c r="C12" t="s">
         <v>53</v>
       </c>
@@ -2510,6 +2648,9 @@
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>450</v>
+      </c>
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -2560,6 +2701,9 @@
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>450</v>
+      </c>
       <c r="C17" t="s">
         <v>165</v>
       </c>
@@ -3545,6 +3689,2070 @@
       </c>
       <c r="Z36" t="s">
         <v>401</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>415</v>
+      </c>
+      <c r="D37" t="s">
+        <v>416</v>
+      </c>
+      <c r="E37" t="s">
+        <v>417</v>
+      </c>
+      <c r="F37" t="s">
+        <v>418</v>
+      </c>
+      <c r="G37" t="s">
+        <v>419</v>
+      </c>
+      <c r="H37" t="s">
+        <v>158</v>
+      </c>
+      <c r="I37" t="s">
+        <v>420</v>
+      </c>
+      <c r="J37" t="s">
+        <v>421</v>
+      </c>
+      <c r="K37" t="s">
+        <v>422</v>
+      </c>
+      <c r="L37" t="s">
+        <v>423</v>
+      </c>
+      <c r="M37" t="s">
+        <v>424</v>
+      </c>
+      <c r="N37" t="s">
+        <v>216</v>
+      </c>
+      <c r="O37" t="s">
+        <v>87</v>
+      </c>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>415</v>
+      </c>
+      <c r="D38" t="s">
+        <v>427</v>
+      </c>
+      <c r="E38" t="s">
+        <v>428</v>
+      </c>
+      <c r="F38" t="s">
+        <v>429</v>
+      </c>
+      <c r="G38" t="s">
+        <v>397</v>
+      </c>
+      <c r="H38" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38" t="s">
+        <v>430</v>
+      </c>
+      <c r="J38" t="s">
+        <v>431</v>
+      </c>
+      <c r="K38" t="s">
+        <v>432</v>
+      </c>
+      <c r="L38" t="s">
+        <v>433</v>
+      </c>
+      <c r="M38" t="s">
+        <v>434</v>
+      </c>
+      <c r="N38" t="s">
+        <v>279</v>
+      </c>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>415</v>
+      </c>
+      <c r="D39" t="s">
+        <v>436</v>
+      </c>
+      <c r="E39" t="s">
+        <v>437</v>
+      </c>
+      <c r="F39" t="s">
+        <v>438</v>
+      </c>
+      <c r="G39" t="s">
+        <v>439</v>
+      </c>
+      <c r="H39" t="s">
+        <v>170</v>
+      </c>
+      <c r="I39" t="s">
+        <v>440</v>
+      </c>
+      <c r="J39" t="s">
+        <v>441</v>
+      </c>
+      <c r="K39" t="s">
+        <v>442</v>
+      </c>
+      <c r="L39" t="s">
+        <v>443</v>
+      </c>
+      <c r="M39" t="s">
+        <v>444</v>
+      </c>
+      <c r="N39" t="s">
+        <v>37</v>
+      </c>
+      <c r="O39" t="s">
+        <v>445</v>
+      </c>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>415</v>
+      </c>
+      <c r="D40" t="s">
+        <v>416</v>
+      </c>
+      <c r="E40" t="s">
+        <v>417</v>
+      </c>
+      <c r="F40" t="s">
+        <v>418</v>
+      </c>
+      <c r="G40" t="s">
+        <v>419</v>
+      </c>
+      <c r="H40" t="s">
+        <v>158</v>
+      </c>
+      <c r="I40" t="s">
+        <v>420</v>
+      </c>
+      <c r="J40" t="s">
+        <v>421</v>
+      </c>
+      <c r="K40" t="s">
+        <v>422</v>
+      </c>
+      <c r="L40" t="s">
+        <v>423</v>
+      </c>
+      <c r="M40" t="s">
+        <v>424</v>
+      </c>
+      <c r="N40" t="s">
+        <v>216</v>
+      </c>
+      <c r="O40" t="s">
+        <v>87</v>
+      </c>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>415</v>
+      </c>
+      <c r="D41" t="s">
+        <v>427</v>
+      </c>
+      <c r="E41" t="s">
+        <v>428</v>
+      </c>
+      <c r="F41" t="s">
+        <v>429</v>
+      </c>
+      <c r="G41" t="s">
+        <v>397</v>
+      </c>
+      <c r="H41" t="s">
+        <v>81</v>
+      </c>
+      <c r="I41" t="s">
+        <v>430</v>
+      </c>
+      <c r="J41" t="s">
+        <v>431</v>
+      </c>
+      <c r="K41" t="s">
+        <v>432</v>
+      </c>
+      <c r="L41" t="s">
+        <v>433</v>
+      </c>
+      <c r="M41" t="s">
+        <v>434</v>
+      </c>
+      <c r="N41" t="s">
+        <v>279</v>
+      </c>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>415</v>
+      </c>
+      <c r="D42" t="s">
+        <v>436</v>
+      </c>
+      <c r="E42" t="s">
+        <v>437</v>
+      </c>
+      <c r="F42" t="s">
+        <v>438</v>
+      </c>
+      <c r="G42" t="s">
+        <v>439</v>
+      </c>
+      <c r="H42" t="s">
+        <v>170</v>
+      </c>
+      <c r="I42" t="s">
+        <v>440</v>
+      </c>
+      <c r="J42" t="s">
+        <v>441</v>
+      </c>
+      <c r="K42" t="s">
+        <v>442</v>
+      </c>
+      <c r="L42" t="s">
+        <v>443</v>
+      </c>
+      <c r="M42" t="s">
+        <v>444</v>
+      </c>
+      <c r="N42" t="s">
+        <v>37</v>
+      </c>
+      <c r="O42" t="s">
+        <v>445</v>
+      </c>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>415</v>
+      </c>
+      <c r="D43" t="s">
+        <v>416</v>
+      </c>
+      <c r="E43" t="s">
+        <v>417</v>
+      </c>
+      <c r="F43" t="s">
+        <v>418</v>
+      </c>
+      <c r="G43" t="s">
+        <v>419</v>
+      </c>
+      <c r="H43" t="s">
+        <v>158</v>
+      </c>
+      <c r="I43" t="s">
+        <v>420</v>
+      </c>
+      <c r="J43" t="s">
+        <v>421</v>
+      </c>
+      <c r="K43" t="s">
+        <v>422</v>
+      </c>
+      <c r="L43" t="s">
+        <v>423</v>
+      </c>
+      <c r="M43" t="s">
+        <v>424</v>
+      </c>
+      <c r="N43" t="s">
+        <v>216</v>
+      </c>
+      <c r="O43" t="s">
+        <v>87</v>
+      </c>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43" t="s">
+        <v>448</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>415</v>
+      </c>
+      <c r="D44" t="s">
+        <v>427</v>
+      </c>
+      <c r="E44" t="s">
+        <v>428</v>
+      </c>
+      <c r="F44" t="s">
+        <v>429</v>
+      </c>
+      <c r="G44" t="s">
+        <v>397</v>
+      </c>
+      <c r="H44" t="s">
+        <v>81</v>
+      </c>
+      <c r="I44" t="s">
+        <v>430</v>
+      </c>
+      <c r="J44" t="s">
+        <v>431</v>
+      </c>
+      <c r="K44" t="s">
+        <v>432</v>
+      </c>
+      <c r="L44" t="s">
+        <v>433</v>
+      </c>
+      <c r="M44" t="s">
+        <v>434</v>
+      </c>
+      <c r="N44" t="s">
+        <v>279</v>
+      </c>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44" t="s">
+        <v>448</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>415</v>
+      </c>
+      <c r="D45" t="s">
+        <v>436</v>
+      </c>
+      <c r="E45" t="s">
+        <v>437</v>
+      </c>
+      <c r="F45" t="s">
+        <v>438</v>
+      </c>
+      <c r="G45" t="s">
+        <v>439</v>
+      </c>
+      <c r="H45" t="s">
+        <v>170</v>
+      </c>
+      <c r="I45" t="s">
+        <v>440</v>
+      </c>
+      <c r="J45" t="s">
+        <v>441</v>
+      </c>
+      <c r="K45" t="s">
+        <v>442</v>
+      </c>
+      <c r="L45" t="s">
+        <v>443</v>
+      </c>
+      <c r="M45" t="s">
+        <v>444</v>
+      </c>
+      <c r="N45" t="s">
+        <v>37</v>
+      </c>
+      <c r="O45" t="s">
+        <v>445</v>
+      </c>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45" t="s">
+        <v>448</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>415</v>
+      </c>
+      <c r="D46" t="s">
+        <v>416</v>
+      </c>
+      <c r="E46" t="s">
+        <v>417</v>
+      </c>
+      <c r="F46" t="s">
+        <v>418</v>
+      </c>
+      <c r="G46" t="s">
+        <v>419</v>
+      </c>
+      <c r="H46" t="s">
+        <v>158</v>
+      </c>
+      <c r="I46" t="s">
+        <v>420</v>
+      </c>
+      <c r="J46" t="s">
+        <v>421</v>
+      </c>
+      <c r="K46" t="s">
+        <v>422</v>
+      </c>
+      <c r="L46" t="s">
+        <v>423</v>
+      </c>
+      <c r="M46" t="s">
+        <v>424</v>
+      </c>
+      <c r="N46" t="s">
+        <v>216</v>
+      </c>
+      <c r="O46" t="s">
+        <v>87</v>
+      </c>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46" t="s">
+        <v>449</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>415</v>
+      </c>
+      <c r="D47" t="s">
+        <v>427</v>
+      </c>
+      <c r="E47" t="s">
+        <v>428</v>
+      </c>
+      <c r="F47" t="s">
+        <v>429</v>
+      </c>
+      <c r="G47" t="s">
+        <v>397</v>
+      </c>
+      <c r="H47" t="s">
+        <v>81</v>
+      </c>
+      <c r="I47" t="s">
+        <v>430</v>
+      </c>
+      <c r="J47" t="s">
+        <v>431</v>
+      </c>
+      <c r="K47" t="s">
+        <v>432</v>
+      </c>
+      <c r="L47" t="s">
+        <v>433</v>
+      </c>
+      <c r="M47" t="s">
+        <v>434</v>
+      </c>
+      <c r="N47" t="s">
+        <v>279</v>
+      </c>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47" t="s">
+        <v>449</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>415</v>
+      </c>
+      <c r="D48" t="s">
+        <v>436</v>
+      </c>
+      <c r="E48" t="s">
+        <v>437</v>
+      </c>
+      <c r="F48" t="s">
+        <v>438</v>
+      </c>
+      <c r="G48" t="s">
+        <v>439</v>
+      </c>
+      <c r="H48" t="s">
+        <v>170</v>
+      </c>
+      <c r="I48" t="s">
+        <v>440</v>
+      </c>
+      <c r="J48" t="s">
+        <v>441</v>
+      </c>
+      <c r="K48" t="s">
+        <v>442</v>
+      </c>
+      <c r="L48" t="s">
+        <v>443</v>
+      </c>
+      <c r="M48" t="s">
+        <v>444</v>
+      </c>
+      <c r="N48" t="s">
+        <v>37</v>
+      </c>
+      <c r="O48" t="s">
+        <v>445</v>
+      </c>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48" t="s">
+        <v>449</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>415</v>
+      </c>
+      <c r="D49" t="s">
+        <v>416</v>
+      </c>
+      <c r="E49" t="s">
+        <v>417</v>
+      </c>
+      <c r="F49" t="s">
+        <v>418</v>
+      </c>
+      <c r="G49" t="s">
+        <v>419</v>
+      </c>
+      <c r="H49" t="s">
+        <v>158</v>
+      </c>
+      <c r="I49" t="s">
+        <v>420</v>
+      </c>
+      <c r="J49" t="s">
+        <v>421</v>
+      </c>
+      <c r="K49" t="s">
+        <v>422</v>
+      </c>
+      <c r="L49" t="s">
+        <v>423</v>
+      </c>
+      <c r="M49" t="s">
+        <v>424</v>
+      </c>
+      <c r="N49" t="s">
+        <v>216</v>
+      </c>
+      <c r="O49" t="s">
+        <v>87</v>
+      </c>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>415</v>
+      </c>
+      <c r="D50" t="s">
+        <v>427</v>
+      </c>
+      <c r="E50" t="s">
+        <v>428</v>
+      </c>
+      <c r="F50" t="s">
+        <v>429</v>
+      </c>
+      <c r="G50" t="s">
+        <v>397</v>
+      </c>
+      <c r="H50" t="s">
+        <v>81</v>
+      </c>
+      <c r="I50" t="s">
+        <v>430</v>
+      </c>
+      <c r="J50" t="s">
+        <v>431</v>
+      </c>
+      <c r="K50" t="s">
+        <v>432</v>
+      </c>
+      <c r="L50" t="s">
+        <v>433</v>
+      </c>
+      <c r="M50" t="s">
+        <v>434</v>
+      </c>
+      <c r="N50" t="s">
+        <v>279</v>
+      </c>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>415</v>
+      </c>
+      <c r="D51" t="s">
+        <v>436</v>
+      </c>
+      <c r="E51" t="s">
+        <v>437</v>
+      </c>
+      <c r="F51" t="s">
+        <v>438</v>
+      </c>
+      <c r="G51" t="s">
+        <v>439</v>
+      </c>
+      <c r="H51" t="s">
+        <v>170</v>
+      </c>
+      <c r="I51" t="s">
+        <v>440</v>
+      </c>
+      <c r="J51" t="s">
+        <v>441</v>
+      </c>
+      <c r="K51" t="s">
+        <v>442</v>
+      </c>
+      <c r="L51" t="s">
+        <v>443</v>
+      </c>
+      <c r="M51" t="s">
+        <v>444</v>
+      </c>
+      <c r="N51" t="s">
+        <v>37</v>
+      </c>
+      <c r="O51" t="s">
+        <v>445</v>
+      </c>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>415</v>
+      </c>
+      <c r="D52" t="s">
+        <v>416</v>
+      </c>
+      <c r="E52" t="s">
+        <v>417</v>
+      </c>
+      <c r="F52" t="s">
+        <v>418</v>
+      </c>
+      <c r="G52" t="s">
+        <v>419</v>
+      </c>
+      <c r="H52" t="s">
+        <v>158</v>
+      </c>
+      <c r="I52" t="s">
+        <v>420</v>
+      </c>
+      <c r="J52" t="s">
+        <v>421</v>
+      </c>
+      <c r="K52" t="s">
+        <v>422</v>
+      </c>
+      <c r="L52" t="s">
+        <v>423</v>
+      </c>
+      <c r="M52" t="s">
+        <v>424</v>
+      </c>
+      <c r="N52" t="s">
+        <v>216</v>
+      </c>
+      <c r="O52" t="s">
+        <v>87</v>
+      </c>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52" t="s">
+        <v>452</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>415</v>
+      </c>
+      <c r="D53" t="s">
+        <v>427</v>
+      </c>
+      <c r="E53" t="s">
+        <v>428</v>
+      </c>
+      <c r="F53" t="s">
+        <v>429</v>
+      </c>
+      <c r="G53" t="s">
+        <v>397</v>
+      </c>
+      <c r="H53" t="s">
+        <v>81</v>
+      </c>
+      <c r="I53" t="s">
+        <v>430</v>
+      </c>
+      <c r="J53" t="s">
+        <v>431</v>
+      </c>
+      <c r="K53" t="s">
+        <v>432</v>
+      </c>
+      <c r="L53" t="s">
+        <v>433</v>
+      </c>
+      <c r="M53" t="s">
+        <v>434</v>
+      </c>
+      <c r="N53" t="s">
+        <v>279</v>
+      </c>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53" t="s">
+        <v>452</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>415</v>
+      </c>
+      <c r="D54" t="s">
+        <v>436</v>
+      </c>
+      <c r="E54" t="s">
+        <v>437</v>
+      </c>
+      <c r="F54" t="s">
+        <v>438</v>
+      </c>
+      <c r="G54" t="s">
+        <v>439</v>
+      </c>
+      <c r="H54" t="s">
+        <v>170</v>
+      </c>
+      <c r="I54" t="s">
+        <v>440</v>
+      </c>
+      <c r="J54" t="s">
+        <v>441</v>
+      </c>
+      <c r="K54" t="s">
+        <v>442</v>
+      </c>
+      <c r="L54" t="s">
+        <v>443</v>
+      </c>
+      <c r="M54" t="s">
+        <v>444</v>
+      </c>
+      <c r="N54" t="s">
+        <v>37</v>
+      </c>
+      <c r="O54" t="s">
+        <v>445</v>
+      </c>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54" t="s">
+        <v>452</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>415</v>
+      </c>
+      <c r="D55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E55" t="s">
+        <v>417</v>
+      </c>
+      <c r="F55" t="s">
+        <v>418</v>
+      </c>
+      <c r="G55" t="s">
+        <v>419</v>
+      </c>
+      <c r="H55" t="s">
+        <v>158</v>
+      </c>
+      <c r="I55" t="s">
+        <v>420</v>
+      </c>
+      <c r="J55" t="s">
+        <v>421</v>
+      </c>
+      <c r="K55" t="s">
+        <v>422</v>
+      </c>
+      <c r="L55" t="s">
+        <v>423</v>
+      </c>
+      <c r="M55" t="s">
+        <v>424</v>
+      </c>
+      <c r="N55" t="s">
+        <v>216</v>
+      </c>
+      <c r="O55" t="s">
+        <v>87</v>
+      </c>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55" t="s">
+        <v>453</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>415</v>
+      </c>
+      <c r="D56" t="s">
+        <v>427</v>
+      </c>
+      <c r="E56" t="s">
+        <v>428</v>
+      </c>
+      <c r="F56" t="s">
+        <v>429</v>
+      </c>
+      <c r="G56" t="s">
+        <v>397</v>
+      </c>
+      <c r="H56" t="s">
+        <v>81</v>
+      </c>
+      <c r="I56" t="s">
+        <v>430</v>
+      </c>
+      <c r="J56" t="s">
+        <v>431</v>
+      </c>
+      <c r="K56" t="s">
+        <v>432</v>
+      </c>
+      <c r="L56" t="s">
+        <v>433</v>
+      </c>
+      <c r="M56" t="s">
+        <v>434</v>
+      </c>
+      <c r="N56" t="s">
+        <v>279</v>
+      </c>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56" t="s">
+        <v>453</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>415</v>
+      </c>
+      <c r="D57" t="s">
+        <v>436</v>
+      </c>
+      <c r="E57" t="s">
+        <v>437</v>
+      </c>
+      <c r="F57" t="s">
+        <v>438</v>
+      </c>
+      <c r="G57" t="s">
+        <v>439</v>
+      </c>
+      <c r="H57" t="s">
+        <v>170</v>
+      </c>
+      <c r="I57" t="s">
+        <v>440</v>
+      </c>
+      <c r="J57" t="s">
+        <v>441</v>
+      </c>
+      <c r="K57" t="s">
+        <v>442</v>
+      </c>
+      <c r="L57" t="s">
+        <v>443</v>
+      </c>
+      <c r="M57" t="s">
+        <v>444</v>
+      </c>
+      <c r="N57" t="s">
+        <v>37</v>
+      </c>
+      <c r="O57" t="s">
+        <v>445</v>
+      </c>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57" t="s">
+        <v>453</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>415</v>
+      </c>
+      <c r="D58" t="s">
+        <v>416</v>
+      </c>
+      <c r="E58" t="s">
+        <v>417</v>
+      </c>
+      <c r="F58" t="s">
+        <v>418</v>
+      </c>
+      <c r="G58" t="s">
+        <v>419</v>
+      </c>
+      <c r="H58" t="s">
+        <v>158</v>
+      </c>
+      <c r="I58" t="s">
+        <v>420</v>
+      </c>
+      <c r="J58" t="s">
+        <v>421</v>
+      </c>
+      <c r="K58" t="s">
+        <v>422</v>
+      </c>
+      <c r="L58" t="s">
+        <v>423</v>
+      </c>
+      <c r="M58" t="s">
+        <v>424</v>
+      </c>
+      <c r="N58" t="s">
+        <v>216</v>
+      </c>
+      <c r="O58" t="s">
+        <v>87</v>
+      </c>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>415</v>
+      </c>
+      <c r="D59" t="s">
+        <v>427</v>
+      </c>
+      <c r="E59" t="s">
+        <v>428</v>
+      </c>
+      <c r="F59" t="s">
+        <v>429</v>
+      </c>
+      <c r="G59" t="s">
+        <v>397</v>
+      </c>
+      <c r="H59" t="s">
+        <v>81</v>
+      </c>
+      <c r="I59" t="s">
+        <v>430</v>
+      </c>
+      <c r="J59" t="s">
+        <v>431</v>
+      </c>
+      <c r="K59" t="s">
+        <v>432</v>
+      </c>
+      <c r="L59" t="s">
+        <v>433</v>
+      </c>
+      <c r="M59" t="s">
+        <v>434</v>
+      </c>
+      <c r="N59" t="s">
+        <v>279</v>
+      </c>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>415</v>
+      </c>
+      <c r="D60" t="s">
+        <v>436</v>
+      </c>
+      <c r="E60" t="s">
+        <v>437</v>
+      </c>
+      <c r="F60" t="s">
+        <v>438</v>
+      </c>
+      <c r="G60" t="s">
+        <v>439</v>
+      </c>
+      <c r="H60" t="s">
+        <v>170</v>
+      </c>
+      <c r="I60" t="s">
+        <v>440</v>
+      </c>
+      <c r="J60" t="s">
+        <v>441</v>
+      </c>
+      <c r="K60" t="s">
+        <v>442</v>
+      </c>
+      <c r="L60" t="s">
+        <v>443</v>
+      </c>
+      <c r="M60" t="s">
+        <v>444</v>
+      </c>
+      <c r="N60" t="s">
+        <v>37</v>
+      </c>
+      <c r="O60" t="s">
+        <v>445</v>
+      </c>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>415</v>
+      </c>
+      <c r="D61" t="s">
+        <v>416</v>
+      </c>
+      <c r="E61" t="s">
+        <v>417</v>
+      </c>
+      <c r="F61" t="s">
+        <v>418</v>
+      </c>
+      <c r="G61" t="s">
+        <v>419</v>
+      </c>
+      <c r="H61" t="s">
+        <v>158</v>
+      </c>
+      <c r="I61" t="s">
+        <v>420</v>
+      </c>
+      <c r="J61" t="s">
+        <v>421</v>
+      </c>
+      <c r="K61" t="s">
+        <v>422</v>
+      </c>
+      <c r="L61" t="s">
+        <v>423</v>
+      </c>
+      <c r="M61" t="s">
+        <v>424</v>
+      </c>
+      <c r="N61" t="s">
+        <v>216</v>
+      </c>
+      <c r="O61" t="s">
+        <v>87</v>
+      </c>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61" t="s">
+        <v>455</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>415</v>
+      </c>
+      <c r="D62" t="s">
+        <v>427</v>
+      </c>
+      <c r="E62" t="s">
+        <v>428</v>
+      </c>
+      <c r="F62" t="s">
+        <v>429</v>
+      </c>
+      <c r="G62" t="s">
+        <v>397</v>
+      </c>
+      <c r="H62" t="s">
+        <v>81</v>
+      </c>
+      <c r="I62" t="s">
+        <v>430</v>
+      </c>
+      <c r="J62" t="s">
+        <v>431</v>
+      </c>
+      <c r="K62" t="s">
+        <v>432</v>
+      </c>
+      <c r="L62" t="s">
+        <v>433</v>
+      </c>
+      <c r="M62" t="s">
+        <v>434</v>
+      </c>
+      <c r="N62" t="s">
+        <v>279</v>
+      </c>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62" t="s">
+        <v>455</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>415</v>
+      </c>
+      <c r="D63" t="s">
+        <v>436</v>
+      </c>
+      <c r="E63" t="s">
+        <v>437</v>
+      </c>
+      <c r="F63" t="s">
+        <v>438</v>
+      </c>
+      <c r="G63" t="s">
+        <v>439</v>
+      </c>
+      <c r="H63" t="s">
+        <v>170</v>
+      </c>
+      <c r="I63" t="s">
+        <v>440</v>
+      </c>
+      <c r="J63" t="s">
+        <v>441</v>
+      </c>
+      <c r="K63" t="s">
+        <v>442</v>
+      </c>
+      <c r="L63" t="s">
+        <v>443</v>
+      </c>
+      <c r="M63" t="s">
+        <v>444</v>
+      </c>
+      <c r="N63" t="s">
+        <v>37</v>
+      </c>
+      <c r="O63" t="s">
+        <v>445</v>
+      </c>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63" t="s">
+        <v>455</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>415</v>
+      </c>
+      <c r="D64" t="s">
+        <v>416</v>
+      </c>
+      <c r="E64" t="s">
+        <v>417</v>
+      </c>
+      <c r="F64" t="s">
+        <v>418</v>
+      </c>
+      <c r="G64" t="s">
+        <v>419</v>
+      </c>
+      <c r="H64" t="s">
+        <v>158</v>
+      </c>
+      <c r="I64" t="s">
+        <v>420</v>
+      </c>
+      <c r="J64" t="s">
+        <v>421</v>
+      </c>
+      <c r="K64" t="s">
+        <v>422</v>
+      </c>
+      <c r="L64" t="s">
+        <v>423</v>
+      </c>
+      <c r="M64" t="s">
+        <v>424</v>
+      </c>
+      <c r="N64" t="s">
+        <v>216</v>
+      </c>
+      <c r="O64" t="s">
+        <v>87</v>
+      </c>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64" t="s">
+        <v>456</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>415</v>
+      </c>
+      <c r="D65" t="s">
+        <v>427</v>
+      </c>
+      <c r="E65" t="s">
+        <v>428</v>
+      </c>
+      <c r="F65" t="s">
+        <v>429</v>
+      </c>
+      <c r="G65" t="s">
+        <v>397</v>
+      </c>
+      <c r="H65" t="s">
+        <v>81</v>
+      </c>
+      <c r="I65" t="s">
+        <v>430</v>
+      </c>
+      <c r="J65" t="s">
+        <v>431</v>
+      </c>
+      <c r="K65" t="s">
+        <v>432</v>
+      </c>
+      <c r="L65" t="s">
+        <v>433</v>
+      </c>
+      <c r="M65" t="s">
+        <v>434</v>
+      </c>
+      <c r="N65" t="s">
+        <v>279</v>
+      </c>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65" t="s">
+        <v>456</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>415</v>
+      </c>
+      <c r="D66" t="s">
+        <v>436</v>
+      </c>
+      <c r="E66" t="s">
+        <v>437</v>
+      </c>
+      <c r="F66" t="s">
+        <v>438</v>
+      </c>
+      <c r="G66" t="s">
+        <v>439</v>
+      </c>
+      <c r="H66" t="s">
+        <v>170</v>
+      </c>
+      <c r="I66" t="s">
+        <v>440</v>
+      </c>
+      <c r="J66" t="s">
+        <v>441</v>
+      </c>
+      <c r="K66" t="s">
+        <v>442</v>
+      </c>
+      <c r="L66" t="s">
+        <v>443</v>
+      </c>
+      <c r="M66" t="s">
+        <v>444</v>
+      </c>
+      <c r="N66" t="s">
+        <v>37</v>
+      </c>
+      <c r="O66" t="s">
+        <v>445</v>
+      </c>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66" t="s">
+        <v>456</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>415</v>
+      </c>
+      <c r="D67" t="s">
+        <v>416</v>
+      </c>
+      <c r="E67" t="s">
+        <v>417</v>
+      </c>
+      <c r="F67" t="s">
+        <v>418</v>
+      </c>
+      <c r="G67" t="s">
+        <v>419</v>
+      </c>
+      <c r="H67" t="s">
+        <v>158</v>
+      </c>
+      <c r="I67" t="s">
+        <v>420</v>
+      </c>
+      <c r="J67" t="s">
+        <v>421</v>
+      </c>
+      <c r="K67" t="s">
+        <v>422</v>
+      </c>
+      <c r="L67" t="s">
+        <v>423</v>
+      </c>
+      <c r="M67" t="s">
+        <v>424</v>
+      </c>
+      <c r="N67" t="s">
+        <v>216</v>
+      </c>
+      <c r="O67" t="s">
+        <v>87</v>
+      </c>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>415</v>
+      </c>
+      <c r="D68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E68" t="s">
+        <v>428</v>
+      </c>
+      <c r="F68" t="s">
+        <v>429</v>
+      </c>
+      <c r="G68" t="s">
+        <v>397</v>
+      </c>
+      <c r="H68" t="s">
+        <v>81</v>
+      </c>
+      <c r="I68" t="s">
+        <v>430</v>
+      </c>
+      <c r="J68" t="s">
+        <v>431</v>
+      </c>
+      <c r="K68" t="s">
+        <v>432</v>
+      </c>
+      <c r="L68" t="s">
+        <v>433</v>
+      </c>
+      <c r="M68" t="s">
+        <v>434</v>
+      </c>
+      <c r="N68" t="s">
+        <v>279</v>
+      </c>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>415</v>
+      </c>
+      <c r="D69" t="s">
+        <v>436</v>
+      </c>
+      <c r="E69" t="s">
+        <v>437</v>
+      </c>
+      <c r="F69" t="s">
+        <v>438</v>
+      </c>
+      <c r="G69" t="s">
+        <v>439</v>
+      </c>
+      <c r="H69" t="s">
+        <v>170</v>
+      </c>
+      <c r="I69" t="s">
+        <v>440</v>
+      </c>
+      <c r="J69" t="s">
+        <v>441</v>
+      </c>
+      <c r="K69" t="s">
+        <v>442</v>
+      </c>
+      <c r="L69" t="s">
+        <v>443</v>
+      </c>
+      <c r="M69" t="s">
+        <v>444</v>
+      </c>
+      <c r="N69" t="s">
+        <v>37</v>
+      </c>
+      <c r="O69" t="s">
+        <v>445</v>
+      </c>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>415</v>
+      </c>
+      <c r="D70" t="s">
+        <v>416</v>
+      </c>
+      <c r="E70" t="s">
+        <v>417</v>
+      </c>
+      <c r="F70" t="s">
+        <v>418</v>
+      </c>
+      <c r="G70" t="s">
+        <v>419</v>
+      </c>
+      <c r="H70" t="s">
+        <v>158</v>
+      </c>
+      <c r="I70" t="s">
+        <v>420</v>
+      </c>
+      <c r="J70" t="s">
+        <v>421</v>
+      </c>
+      <c r="K70" t="s">
+        <v>422</v>
+      </c>
+      <c r="L70" t="s">
+        <v>423</v>
+      </c>
+      <c r="M70" t="s">
+        <v>424</v>
+      </c>
+      <c r="N70" t="s">
+        <v>216</v>
+      </c>
+      <c r="O70" t="s">
+        <v>87</v>
+      </c>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>415</v>
+      </c>
+      <c r="D71" t="s">
+        <v>427</v>
+      </c>
+      <c r="E71" t="s">
+        <v>428</v>
+      </c>
+      <c r="F71" t="s">
+        <v>429</v>
+      </c>
+      <c r="G71" t="s">
+        <v>397</v>
+      </c>
+      <c r="H71" t="s">
+        <v>81</v>
+      </c>
+      <c r="I71" t="s">
+        <v>430</v>
+      </c>
+      <c r="J71" t="s">
+        <v>431</v>
+      </c>
+      <c r="K71" t="s">
+        <v>432</v>
+      </c>
+      <c r="L71" t="s">
+        <v>433</v>
+      </c>
+      <c r="M71" t="s">
+        <v>434</v>
+      </c>
+      <c r="N71" t="s">
+        <v>279</v>
+      </c>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>415</v>
+      </c>
+      <c r="D72" t="s">
+        <v>436</v>
+      </c>
+      <c r="E72" t="s">
+        <v>437</v>
+      </c>
+      <c r="F72" t="s">
+        <v>438</v>
+      </c>
+      <c r="G72" t="s">
+        <v>439</v>
+      </c>
+      <c r="H72" t="s">
+        <v>170</v>
+      </c>
+      <c r="I72" t="s">
+        <v>440</v>
+      </c>
+      <c r="J72" t="s">
+        <v>441</v>
+      </c>
+      <c r="K72" t="s">
+        <v>442</v>
+      </c>
+      <c r="L72" t="s">
+        <v>443</v>
+      </c>
+      <c r="M72" t="s">
+        <v>444</v>
+      </c>
+      <c r="N72" t="s">
+        <v>37</v>
+      </c>
+      <c r="O72" t="s">
+        <v>445</v>
+      </c>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>

--- a/MyFramework_1/TestData/TD/TD.xlsx
+++ b/MyFramework_1/TestData/TD/TD.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="433">
   <si>
     <t>Date</t>
   </si>
@@ -1279,6 +1279,60 @@
   </si>
   <si>
     <t>Run Details</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR468880</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR468882</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR468884</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR468886</t>
+  </si>
+  <si>
+    <t>Failed - Submission. Please check if an entry is submitted</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR468891</t>
+  </si>
+  <si>
+    <t>Failed - Wrong address provided</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR468897</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR468900</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR468903</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR468906</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR468912</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR468913</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR468916</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR468917</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR468919</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR468921</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR468924</t>
   </si>
 </sst>
 </file>
@@ -1783,6 +1837,9 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>415</v>
+      </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
@@ -2307,6 +2364,9 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>416</v>
+      </c>
       <c r="C12" t="s">
         <v>53</v>
       </c>
@@ -2510,6 +2570,9 @@
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>417</v>
+      </c>
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -2560,6 +2623,9 @@
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>418</v>
+      </c>
       <c r="C17" t="s">
         <v>165</v>
       </c>
@@ -2610,6 +2676,9 @@
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>419</v>
+      </c>
       <c r="C18" t="s">
         <v>40</v>
       </c>
@@ -2660,6 +2729,9 @@
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>420</v>
+      </c>
       <c r="C19" t="s">
         <v>218</v>
       </c>
@@ -2710,6 +2782,9 @@
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20" t="s">
+        <v>421</v>
+      </c>
       <c r="C20" t="s">
         <v>121</v>
       </c>
@@ -2760,6 +2835,9 @@
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21" t="s">
+        <v>422</v>
+      </c>
       <c r="C21" t="s">
         <v>133</v>
       </c>
@@ -2807,6 +2885,9 @@
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22" t="s">
+        <v>423</v>
+      </c>
       <c r="C22" t="s">
         <v>133</v>
       </c>
@@ -2857,6 +2938,9 @@
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23" t="s">
+        <v>424</v>
+      </c>
       <c r="C23" t="s">
         <v>165</v>
       </c>
@@ -2907,6 +2991,9 @@
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24" t="s">
+        <v>425</v>
+      </c>
       <c r="C24" t="s">
         <v>53</v>
       </c>
@@ -2957,6 +3044,9 @@
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25" t="s">
+        <v>426</v>
+      </c>
       <c r="C25" t="s">
         <v>53</v>
       </c>
@@ -3004,6 +3094,9 @@
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26" t="s">
+        <v>427</v>
+      </c>
       <c r="C26" t="s">
         <v>165</v>
       </c>
@@ -3104,6 +3197,9 @@
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="B28" t="s">
+        <v>428</v>
+      </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
@@ -3154,6 +3250,9 @@
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="B29" t="s">
+        <v>429</v>
+      </c>
       <c r="C29" t="s">
         <v>53</v>
       </c>
@@ -3204,6 +3303,9 @@
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="B30" t="s">
+        <v>430</v>
+      </c>
       <c r="C30" t="s">
         <v>165</v>
       </c>
@@ -3251,6 +3353,9 @@
       <c r="A31">
         <v>30</v>
       </c>
+      <c r="B31" t="s">
+        <v>431</v>
+      </c>
       <c r="C31" t="s">
         <v>133</v>
       </c>
@@ -3303,6 +3408,9 @@
     <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>432</v>
       </c>
       <c r="C32" t="s">
         <v>133</v>

--- a/MyFramework_1/TestData/TD/TD.xlsx
+++ b/MyFramework_1/TestData/TD/TD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagarajaK\eclipse-workspace\Git_Buckt1\MyFramework_1\TestData\TD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245BA16F-6E29-49C6-91AE-1C6592866CB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BA3600-278E-4156-B075-4F19A056F4F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="380" windowWidth="19180" windowHeight="10180" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="446">
   <si>
     <t>Date</t>
   </si>
@@ -1242,97 +1242,136 @@
     <t>992649 Suresh Manoharan.xlsx</t>
   </si>
   <si>
-    <t>Success - Submission completed with order number: Request details    /    PR467978</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR467984</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR467988</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR467990</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR467998</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR468004</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR468008</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR468012</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR468017</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR468026</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR468031</t>
-  </si>
-  <si>
     <t>TD Nov 19 35 set _new Batch 3 1st run</t>
   </si>
   <si>
     <t>Run Details</t>
   </si>
   <si>
-    <t>Success - Submission completed with order number: Request details    /    PR468880</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR468882</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR468884</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR468886</t>
+    <t>11/12/2020</t>
+  </si>
+  <si>
+    <t>01205Q</t>
+  </si>
+  <si>
+    <t>Rajasekaran Periasamy</t>
+  </si>
+  <si>
+    <t>Apt # 204, 144 Galway Drive</t>
+  </si>
+  <si>
+    <t>Mooresville</t>
+  </si>
+  <si>
+    <t>28117-5558</t>
+  </si>
+  <si>
+    <t>raperias@in.ibm.com</t>
+  </si>
+  <si>
+    <t>4693860871</t>
+  </si>
+  <si>
+    <t>Vamsi M Thirumala</t>
+  </si>
+  <si>
+    <t>Vamsi M Thirumala1/India/IBM</t>
+  </si>
+  <si>
+    <t>11/21/2020 23:57:57</t>
+  </si>
+  <si>
+    <t>Branch - Office Supplies Vamsi  v2.0-4.xlsx</t>
+  </si>
+  <si>
+    <t>073574</t>
+  </si>
+  <si>
+    <t>Farid Ahmad</t>
+  </si>
+  <si>
+    <t>2106 Lakeview Drive</t>
+  </si>
+  <si>
+    <t>08859-2252</t>
+  </si>
+  <si>
+    <t>fariahma@in.ibm.com</t>
+  </si>
+  <si>
+    <t>732 397 3266</t>
+  </si>
+  <si>
+    <t>Phani Kiran</t>
+  </si>
+  <si>
+    <t>phanikiran@in.ibm.com</t>
+  </si>
+  <si>
+    <t>Farid Ahmad - Emp Id - 073574 -  11 12 2020.xlsx</t>
+  </si>
+  <si>
+    <t>018594</t>
+  </si>
+  <si>
+    <t>HILLOL MUKHERJEE</t>
+  </si>
+  <si>
+    <t>2330 Pleasant Hill Rd. Apt 20</t>
+  </si>
+  <si>
+    <t>Pleasant Hill</t>
+  </si>
+  <si>
+    <t>94523-3160</t>
+  </si>
+  <si>
+    <t>hilmukhe@in.ibm.com</t>
+  </si>
+  <si>
+    <t>925-914-7904</t>
+  </si>
+  <si>
+    <t>JOYJIT BOSE</t>
+  </si>
+  <si>
+    <t>joyjbose@in.ibm.com</t>
+  </si>
+  <si>
+    <t>StarTech.com USB 3.0 to Gigabit Ethernet Adapter - 10/100/1000 NIC Network Adapt</t>
+  </si>
+  <si>
+    <t>Office Supplies Requisiton_018594_HILLOL MUKHERJEE.xlsx</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR470330</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR470344</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR470354</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR470357</t>
   </si>
   <si>
     <t>Failed - Submission. Please check if an entry is submitted</t>
   </si>
   <si>
-    <t>Success - Submission completed with order number: Request details    /    PR468891</t>
-  </si>
-  <si>
-    <t>Failed - Wrong address provided</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR468897</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR468900</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR468903</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR468906</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR468912</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR468913</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR468916</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR468917</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR468919</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR468921</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR468924</t>
+    <t>Failed -Invalid Product exist :Apple USB-C Charge Cable - USB-C cable - 2 m</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR470437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Failed -Invalid Product exist : </t>
+  </si>
+  <si>
+    <t>Failed -Invalid Product exist :T24i-20(A20238FT0)23.8 inch Monitor-HDMI</t>
+  </si>
+  <si>
+    <t>Success - Submission completed with order number: Request details    /    PR470466</t>
   </si>
 </sst>
 </file>
@@ -1723,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213F3DC-B182-452E-AF46-9D4704FF2230}">
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:Z39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B2" sqref="B2:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1838,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -1888,7 +1927,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
@@ -1941,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
@@ -1994,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
@@ -2044,7 +2083,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="C6" t="s">
         <v>76</v>
@@ -2097,7 +2136,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="C7" t="s">
         <v>90</v>
@@ -2150,7 +2189,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
@@ -2202,9 +2241,6 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>408</v>
-      </c>
       <c r="C9" t="s">
         <v>90</v>
       </c>
@@ -2255,9 +2291,6 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>409</v>
-      </c>
       <c r="C10" t="s">
         <v>121</v>
       </c>
@@ -2311,9 +2344,6 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>410</v>
-      </c>
       <c r="C11" t="s">
         <v>133</v>
       </c>
@@ -2364,9 +2394,6 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>416</v>
-      </c>
       <c r="C12" t="s">
         <v>53</v>
       </c>
@@ -2418,7 +2445,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>411</v>
+        <v>442</v>
       </c>
       <c r="C13" t="s">
         <v>76</v>
@@ -2467,6 +2494,9 @@
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>443</v>
+      </c>
       <c r="C14" t="s">
         <v>165</v>
       </c>
@@ -2517,9 +2547,6 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>412</v>
-      </c>
       <c r="C15" t="s">
         <v>165</v>
       </c>
@@ -2571,7 +2598,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="C16" t="s">
         <v>133</v>
@@ -2624,7 +2651,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="C17" t="s">
         <v>165</v>
@@ -2676,9 +2703,6 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>419</v>
-      </c>
       <c r="C18" t="s">
         <v>40</v>
       </c>
@@ -2729,9 +2753,6 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>420</v>
-      </c>
       <c r="C19" t="s">
         <v>218</v>
       </c>
@@ -2782,9 +2803,6 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>421</v>
-      </c>
       <c r="C20" t="s">
         <v>121</v>
       </c>
@@ -2835,9 +2853,6 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>422</v>
-      </c>
       <c r="C21" t="s">
         <v>133</v>
       </c>
@@ -2885,9 +2900,6 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>423</v>
-      </c>
       <c r="C22" t="s">
         <v>133</v>
       </c>
@@ -2938,9 +2950,6 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>424</v>
-      </c>
       <c r="C23" t="s">
         <v>165</v>
       </c>
@@ -2991,9 +3000,6 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>425</v>
-      </c>
       <c r="C24" t="s">
         <v>53</v>
       </c>
@@ -3044,9 +3050,6 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>426</v>
-      </c>
       <c r="C25" t="s">
         <v>53</v>
       </c>
@@ -3094,9 +3097,6 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>427</v>
-      </c>
       <c r="C26" t="s">
         <v>165</v>
       </c>
@@ -3197,9 +3197,6 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>428</v>
-      </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
@@ -3250,9 +3247,6 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>429</v>
-      </c>
       <c r="C29" t="s">
         <v>53</v>
       </c>
@@ -3303,9 +3297,6 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>430</v>
-      </c>
       <c r="C30" t="s">
         <v>165</v>
       </c>
@@ -3353,9 +3344,6 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>431</v>
-      </c>
       <c r="C31" t="s">
         <v>133</v>
       </c>
@@ -3409,9 +3397,6 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>432</v>
-      </c>
       <c r="C32" t="s">
         <v>133</v>
       </c>
@@ -3653,6 +3638,153 @@
       </c>
       <c r="Z36" t="s">
         <v>401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>404</v>
+      </c>
+      <c r="D37" t="s">
+        <v>405</v>
+      </c>
+      <c r="E37" t="s">
+        <v>406</v>
+      </c>
+      <c r="F37" t="s">
+        <v>407</v>
+      </c>
+      <c r="G37" t="s">
+        <v>408</v>
+      </c>
+      <c r="H37" t="s">
+        <v>158</v>
+      </c>
+      <c r="I37" t="s">
+        <v>409</v>
+      </c>
+      <c r="J37" t="s">
+        <v>410</v>
+      </c>
+      <c r="K37" t="s">
+        <v>411</v>
+      </c>
+      <c r="L37" t="s">
+        <v>412</v>
+      </c>
+      <c r="M37" t="s">
+        <v>413</v>
+      </c>
+      <c r="N37" t="s">
+        <v>216</v>
+      </c>
+      <c r="O37" t="s">
+        <v>87</v>
+      </c>
+      <c r="X37" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>404</v>
+      </c>
+      <c r="D38" t="s">
+        <v>416</v>
+      </c>
+      <c r="E38" t="s">
+        <v>417</v>
+      </c>
+      <c r="F38" t="s">
+        <v>418</v>
+      </c>
+      <c r="G38" t="s">
+        <v>397</v>
+      </c>
+      <c r="H38" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38" t="s">
+        <v>419</v>
+      </c>
+      <c r="J38" t="s">
+        <v>420</v>
+      </c>
+      <c r="K38" t="s">
+        <v>421</v>
+      </c>
+      <c r="L38" t="s">
+        <v>422</v>
+      </c>
+      <c r="M38" t="s">
+        <v>423</v>
+      </c>
+      <c r="N38" t="s">
+        <v>279</v>
+      </c>
+      <c r="X38" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>404</v>
+      </c>
+      <c r="D39" t="s">
+        <v>425</v>
+      </c>
+      <c r="E39" t="s">
+        <v>426</v>
+      </c>
+      <c r="F39" t="s">
+        <v>427</v>
+      </c>
+      <c r="G39" t="s">
+        <v>428</v>
+      </c>
+      <c r="H39" t="s">
+        <v>170</v>
+      </c>
+      <c r="I39" t="s">
+        <v>429</v>
+      </c>
+      <c r="J39" t="s">
+        <v>430</v>
+      </c>
+      <c r="K39" t="s">
+        <v>431</v>
+      </c>
+      <c r="L39" t="s">
+        <v>432</v>
+      </c>
+      <c r="M39" t="s">
+        <v>433</v>
+      </c>
+      <c r="N39" t="s">
+        <v>37</v>
+      </c>
+      <c r="O39" t="s">
+        <v>434</v>
+      </c>
+      <c r="X39" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -3677,7 +3809,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3685,7 +3817,7 @@
         <v>44155</v>
       </c>
       <c r="B2" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>

--- a/MyFramework_1/TestData/TD/TD.xlsx
+++ b/MyFramework_1/TestData/TD/TD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagarajaK\eclipse-workspace\Git_Buckt1\MyFramework_1\TestData\TD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BA3600-278E-4156-B075-4F19A056F4F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23074DE2-125D-41DA-BBF8-F689213D8B69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
+    <workbookView xWindow="20" yWindow="620" windowWidth="19180" windowHeight="10180" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="439">
   <si>
     <t>Date</t>
   </si>
@@ -1344,34 +1344,13 @@
     <t>Office Supplies Requisiton_018594_HILLOL MUKHERJEE.xlsx</t>
   </si>
   <si>
-    <t>Success - Submission completed with order number: Request details    /    PR470330</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR470344</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR470354</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR470357</t>
-  </si>
-  <si>
-    <t>Failed - Submission. Please check if an entry is submitted</t>
-  </si>
-  <si>
-    <t>Failed -Invalid Product exist :Apple USB-C Charge Cable - USB-C cable - 2 m</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR470437</t>
+    <t>Product added to cart- Checkout pending</t>
   </si>
   <si>
     <t xml:space="preserve">Failed -Invalid Product exist : </t>
   </si>
   <si>
-    <t>Failed -Invalid Product exist :T24i-20(A20238FT0)23.8 inch Monitor-HDMI</t>
-  </si>
-  <si>
-    <t>Success - Submission completed with order number: Request details    /    PR470466</t>
+    <t>Failed -Invalid Product exist :StarTech.com Portable USB C Multiport Video Adapter - 4k HDMI or VGA, USB 3.0</t>
   </si>
 </sst>
 </file>
@@ -1764,9 +1743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213F3DC-B182-452E-AF46-9D4704FF2230}">
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B51"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1927,7 +1904,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
@@ -1980,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
@@ -2033,7 +2010,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
@@ -2083,7 +2060,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C6" t="s">
         <v>76</v>
@@ -2136,7 +2113,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C7" t="s">
         <v>90</v>
@@ -2189,7 +2166,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
@@ -2241,6 +2218,9 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>436</v>
+      </c>
       <c r="C9" t="s">
         <v>90</v>
       </c>
@@ -2291,6 +2271,9 @@
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>436</v>
+      </c>
       <c r="C10" t="s">
         <v>121</v>
       </c>
@@ -2344,6 +2327,9 @@
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>436</v>
+      </c>
       <c r="C11" t="s">
         <v>133</v>
       </c>
@@ -2394,6 +2380,9 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>436</v>
+      </c>
       <c r="C12" t="s">
         <v>53</v>
       </c>
@@ -2445,7 +2434,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C13" t="s">
         <v>76</v>
@@ -2495,7 +2484,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C14" t="s">
         <v>165</v>
@@ -2547,6 +2536,9 @@
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>436</v>
+      </c>
       <c r="C15" t="s">
         <v>165</v>
       </c>
@@ -2598,7 +2590,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C16" t="s">
         <v>133</v>
@@ -2651,7 +2643,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C17" t="s">
         <v>165</v>
@@ -2703,6 +2695,9 @@
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>436</v>
+      </c>
       <c r="C18" t="s">
         <v>40</v>
       </c>
@@ -2753,6 +2748,9 @@
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>436</v>
+      </c>
       <c r="C19" t="s">
         <v>218</v>
       </c>
@@ -2803,6 +2801,9 @@
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20" t="s">
+        <v>436</v>
+      </c>
       <c r="C20" t="s">
         <v>121</v>
       </c>
@@ -2853,6 +2854,9 @@
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21" t="s">
+        <v>436</v>
+      </c>
       <c r="C21" t="s">
         <v>133</v>
       </c>
@@ -2900,6 +2904,9 @@
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22" t="s">
+        <v>436</v>
+      </c>
       <c r="C22" t="s">
         <v>133</v>
       </c>
@@ -2950,6 +2957,9 @@
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23" t="s">
+        <v>436</v>
+      </c>
       <c r="C23" t="s">
         <v>165</v>
       </c>
@@ -3000,6 +3010,9 @@
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24" t="s">
+        <v>436</v>
+      </c>
       <c r="C24" t="s">
         <v>53</v>
       </c>
@@ -3050,6 +3063,9 @@
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25" t="s">
+        <v>436</v>
+      </c>
       <c r="C25" t="s">
         <v>53</v>
       </c>
@@ -3097,6 +3113,9 @@
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26" t="s">
+        <v>436</v>
+      </c>
       <c r="C26" t="s">
         <v>165</v>
       </c>
@@ -3144,6 +3163,9 @@
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="B27" t="s">
+        <v>438</v>
+      </c>
       <c r="C27" t="s">
         <v>53</v>
       </c>
@@ -3197,6 +3219,9 @@
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="B28" t="s">
+        <v>436</v>
+      </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
@@ -3247,6 +3272,9 @@
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="B29" t="s">
+        <v>436</v>
+      </c>
       <c r="C29" t="s">
         <v>53</v>
       </c>
@@ -3297,6 +3325,9 @@
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="B30" t="s">
+        <v>436</v>
+      </c>
       <c r="C30" t="s">
         <v>165</v>
       </c>
@@ -3344,6 +3375,9 @@
       <c r="A31">
         <v>30</v>
       </c>
+      <c r="B31" t="s">
+        <v>436</v>
+      </c>
       <c r="C31" t="s">
         <v>133</v>
       </c>
@@ -3397,6 +3431,9 @@
       <c r="A32">
         <v>31</v>
       </c>
+      <c r="B32" t="s">
+        <v>436</v>
+      </c>
       <c r="C32" t="s">
         <v>133</v>
       </c>
@@ -3447,6 +3484,9 @@
       <c r="A33">
         <v>32</v>
       </c>
+      <c r="B33" t="s">
+        <v>436</v>
+      </c>
       <c r="C33" t="s">
         <v>121</v>
       </c>
@@ -3497,6 +3537,9 @@
       <c r="A34">
         <v>33</v>
       </c>
+      <c r="B34" t="s">
+        <v>436</v>
+      </c>
       <c r="C34" t="s">
         <v>371</v>
       </c>
@@ -3544,6 +3587,9 @@
       <c r="A35">
         <v>34</v>
       </c>
+      <c r="B35" t="s">
+        <v>436</v>
+      </c>
       <c r="C35" t="s">
         <v>382</v>
       </c>
@@ -3594,6 +3640,9 @@
       <c r="A36">
         <v>35</v>
       </c>
+      <c r="B36" t="s">
+        <v>436</v>
+      </c>
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -3694,6 +3743,9 @@
       <c r="A38">
         <v>37</v>
       </c>
+      <c r="B38" t="s">
+        <v>436</v>
+      </c>
       <c r="C38" t="s">
         <v>404</v>
       </c>
@@ -3740,6 +3792,9 @@
     <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>436</v>
       </c>
       <c r="C39" t="s">
         <v>404</v>
